--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>-4.392316812619669</v>
+      </c>
+      <c r="C2">
+        <v>3.607518153549104</v>
+      </c>
+      <c r="D2">
+        <v>2.40361628210833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>3.180624686584037</v>
+      </c>
+      <c r="C3">
+        <v>3.192195395350161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>3.682972627875173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>4.223355771924763</v>
+      </c>
+      <c r="C5">
+        <v>-3.493647621243485</v>
+      </c>
+      <c r="D5">
+        <v>-0.01878989914171089</v>
+      </c>
+      <c r="E5">
+        <v>0.1359391768164109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>2.365359308362467</v>
-      </c>
-      <c r="C2">
-        <v>0.8281620552617901</v>
-      </c>
-      <c r="D2">
-        <v>1.077659572262858</v>
-      </c>
-      <c r="E2">
-        <v>-0.06231941433407295</v>
-      </c>
-      <c r="F2">
-        <v>1.660191516732328</v>
-      </c>
-      <c r="G2">
-        <v>1.831006305420496</v>
-      </c>
-      <c r="H2">
-        <v>1.803062971631942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>-3.036372901802552</v>
+      </c>
+      <c r="C6">
+        <v>-0.09359168464822998</v>
+      </c>
+      <c r="D6">
+        <v>-0.1761887334461735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.4484866518436284</v>
-      </c>
-      <c r="C3">
-        <v>0.8744547638173041</v>
-      </c>
-      <c r="D3">
-        <v>-0.2195928751805973</v>
-      </c>
-      <c r="E3">
-        <v>1.510920543170737</v>
-      </c>
-      <c r="F3">
-        <v>1.683409954976272</v>
-      </c>
-      <c r="G3">
-        <v>1.65579400317064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>-0.1852204608502484</v>
+      </c>
+      <c r="C7">
+        <v>0.3058004301967961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.8050199468574308</v>
-      </c>
-      <c r="C4">
-        <v>-0.2535480275615272</v>
-      </c>
-      <c r="D4">
-        <v>1.486130969697657</v>
-      </c>
-      <c r="E4">
-        <v>1.660115206787191</v>
-      </c>
-      <c r="F4">
-        <v>1.632789082748733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.355038346198233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>-0.3753121701623595</v>
-      </c>
-      <c r="C5">
-        <v>1.428449041258905</v>
-      </c>
-      <c r="D5">
-        <v>1.636885036965327</v>
-      </c>
-      <c r="E5">
-        <v>1.616385142906037</v>
-      </c>
-      <c r="F5">
-        <v>0.5606437845406451</v>
-      </c>
-      <c r="G5">
-        <v>1.709363499266259</v>
-      </c>
-      <c r="H5">
-        <v>1.039526261120228</v>
-      </c>
-      <c r="I5">
-        <v>0.758362602159722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>2.40801639692771</v>
+      </c>
+      <c r="C9">
+        <v>-2.245477586963834</v>
+      </c>
+      <c r="D9">
+        <v>2.151604516472347</v>
+      </c>
+      <c r="E9">
+        <v>0.6283460845288085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1.485844094050592</v>
-      </c>
-      <c r="C6">
-        <v>1.672082541019683</v>
-      </c>
-      <c r="D6">
-        <v>1.637059930704587</v>
-      </c>
-      <c r="E6">
-        <v>0.5788207060840609</v>
-      </c>
-      <c r="F6">
-        <v>1.726707384475054</v>
-      </c>
-      <c r="G6">
-        <v>1.056680703191249</v>
-      </c>
-      <c r="H6">
-        <v>0.7754639798784155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>-2.055688839129986</v>
+      </c>
+      <c r="C10">
+        <v>2.186480864014136</v>
+      </c>
+      <c r="D10">
+        <v>0.4815645007011741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>1.56496470119667</v>
-      </c>
-      <c r="C7">
-        <v>1.600621034444091</v>
-      </c>
-      <c r="D7">
-        <v>0.6136834828892275</v>
-      </c>
-      <c r="E7">
-        <v>1.772111444080917</v>
-      </c>
-      <c r="F7">
-        <v>1.106469953104969</v>
-      </c>
-      <c r="G7">
-        <v>0.8261898388978528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>2.158685563477023</v>
+      </c>
+      <c r="C11">
+        <v>0.8973603216459207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1.363529151171468</v>
-      </c>
-      <c r="C8">
-        <v>0.4805316235300849</v>
-      </c>
-      <c r="D8">
-        <v>1.708416029393493</v>
-      </c>
-      <c r="E8">
-        <v>1.05600181376692</v>
-      </c>
-      <c r="F8">
-        <v>0.780353356207278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>1.065051727388569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>0.1668852156693737</v>
-      </c>
-      <c r="C9">
-        <v>1.49643268748782</v>
-      </c>
-      <c r="D9">
-        <v>0.9508714126079534</v>
-      </c>
-      <c r="E9">
-        <v>0.7023626355831956</v>
-      </c>
-      <c r="F9">
-        <v>0.5779160388839947</v>
-      </c>
-      <c r="G9">
-        <v>0.3626049088532474</v>
-      </c>
-      <c r="H9">
-        <v>0.503492797880873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>-0.6956547523276658</v>
+      </c>
+      <c r="C13">
+        <v>-0.3380542091603901</v>
+      </c>
+      <c r="D13">
+        <v>2.189821934246648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>1.461550534448604</v>
-      </c>
-      <c r="C10">
-        <v>0.9248671258006026</v>
-      </c>
-      <c r="D10">
-        <v>0.6891232071157808</v>
-      </c>
-      <c r="E10">
-        <v>0.5676277286342195</v>
-      </c>
-      <c r="F10">
-        <v>0.3538991061560252</v>
-      </c>
-      <c r="G10">
-        <v>0.4953044196637022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>-0.3501127020822081</v>
+      </c>
+      <c r="C14">
+        <v>2.377604964304201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.6153024174162259</v>
-      </c>
-      <c r="C11">
-        <v>0.4238585706756387</v>
-      </c>
-      <c r="D11">
-        <v>0.4113594282484072</v>
-      </c>
-      <c r="E11">
-        <v>0.2180208815079441</v>
-      </c>
-      <c r="F11">
-        <v>0.3721781756272564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>2.263984127560359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.3082167965923907</v>
-      </c>
-      <c r="C12">
-        <v>0.301486124779729</v>
-      </c>
-      <c r="D12">
-        <v>0.1522036064358718</v>
-      </c>
-      <c r="E12">
-        <v>0.311984326484486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.2543428160586467</v>
-      </c>
-      <c r="C13">
-        <v>0.1083196782321065</v>
-      </c>
-      <c r="D13">
-        <v>0.2940355168678882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.07020544946647189</v>
-      </c>
-      <c r="C14">
-        <v>0.257513997415813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.1858424519075594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-4.392316812619669</v>
+        <v>1.827023400069947</v>
       </c>
       <c r="C2">
-        <v>3.607518153549104</v>
+        <v>0.4888028508193502</v>
       </c>
       <c r="D2">
-        <v>2.40361628210833</v>
+        <v>1.471596344594558</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.180624686584037</v>
+        <v>0.06190938385428302</v>
       </c>
       <c r="C3">
-        <v>3.192195395350161</v>
+        <v>2.26017545783639</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.682972627875173</v>
+        <v>2.750952690361402</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4.223355771924763</v>
+        <v>0.7320287013142677</v>
       </c>
       <c r="C5">
-        <v>-3.493647621243485</v>
+        <v>1.522302341005567</v>
       </c>
       <c r="D5">
-        <v>-0.01878989914171089</v>
+        <v>1.467338125109618</v>
       </c>
       <c r="E5">
-        <v>0.1359391768164109</v>
+        <v>1.793638825175652</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-3.036372901802552</v>
+        <v>1.9795770604465</v>
       </c>
       <c r="C6">
-        <v>-0.09359168464822998</v>
+        <v>1.392536339603099</v>
       </c>
       <c r="D6">
-        <v>-0.1761887334461735</v>
+        <v>1.481510914913067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.1852204608502484</v>
+        <v>1.30090756340108</v>
       </c>
       <c r="C7">
-        <v>0.3058004301967961</v>
+        <v>1.963500078556037</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.355038346198233</v>
+        <v>2.012737994557474</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.40801639692771</v>
+        <v>0.8535918672211444</v>
       </c>
       <c r="C9">
-        <v>-2.245477586963834</v>
+        <v>1.782613822028589</v>
       </c>
       <c r="D9">
-        <v>2.151604516472347</v>
+        <v>0.7889205787030562</v>
       </c>
       <c r="E9">
-        <v>0.6283460845288085</v>
+        <v>0.6461210271256811</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-2.055688839129986</v>
+        <v>1.972402569862437</v>
       </c>
       <c r="C10">
-        <v>2.186480864014136</v>
+        <v>0.8237969262448452</v>
       </c>
       <c r="D10">
-        <v>0.4815645007011741</v>
+        <v>0.4993394432980468</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2.158685563477023</v>
+        <v>0.796001625707733</v>
       </c>
       <c r="C11">
-        <v>0.8973603216459207</v>
+        <v>0.9151352642427935</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1.065051727388569</v>
+        <v>1.082826669985442</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.6956547523276658</v>
+        <v>0.573129683809814</v>
       </c>
       <c r="C13">
-        <v>-0.3380542091603901</v>
+        <v>0.1945252858301101</v>
       </c>
       <c r="D13">
-        <v>2.189821934246648</v>
+        <v>0.2603721808367071</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.3501127020822081</v>
+        <v>0.1824667929082922</v>
       </c>
       <c r="C14">
-        <v>2.377604964304201</v>
+        <v>0.4481552108942597</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2.263984127560359</v>
+        <v>0.3345343741504182</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>1.602065061688767</v>
+      </c>
+      <c r="C2">
+        <v>3.04003431312337</v>
+      </c>
+      <c r="D2">
+        <v>-5.938674847989947</v>
+      </c>
+      <c r="E2">
+        <v>0.711740365345836</v>
+      </c>
+      <c r="F2">
+        <v>1.004187453457734</v>
+      </c>
+      <c r="G2">
+        <v>-1.571576459402547</v>
+      </c>
+      <c r="H2">
+        <v>1.677040253876188</v>
+      </c>
+      <c r="I2">
+        <v>1.413579134973207</v>
+      </c>
+      <c r="J2">
+        <v>-1.1970418117026</v>
+      </c>
+      <c r="K2">
+        <v>1.063997643474595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-5.964533143146513</v>
+      </c>
+      <c r="C3">
+        <v>1.176669382365755</v>
+      </c>
+      <c r="D3">
+        <v>1.257909854851463</v>
+      </c>
+      <c r="E3">
+        <v>-1.316511037723468</v>
+      </c>
+      <c r="F3">
+        <v>1.953767573022166</v>
+      </c>
+      <c r="G3">
+        <v>1.68470952429612</v>
+      </c>
+      <c r="H3">
+        <v>-0.9267333470265362</v>
+      </c>
+      <c r="I3">
+        <v>1.335090377852552</v>
+      </c>
+      <c r="J3">
+        <v>2.689117542185831</v>
+      </c>
+      <c r="K3">
+        <v>-1.30947372129706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.1912892836565094</v>
+      </c>
+      <c r="C4">
+        <v>-1.883142166085352</v>
+      </c>
+      <c r="D4">
+        <v>2.40342068983337</v>
+      </c>
+      <c r="E4">
+        <v>1.59145081812635</v>
+      </c>
+      <c r="F4">
+        <v>-1.01940872675969</v>
+      </c>
+      <c r="G4">
+        <v>1.347470452837819</v>
+      </c>
+      <c r="H4">
+        <v>2.663069105302687</v>
+      </c>
+      <c r="I4">
+        <v>-1.341821941620366</v>
+      </c>
+      <c r="J4">
+        <v>-1.778606615788304</v>
+      </c>
+      <c r="K4">
+        <v>0.3811183547683571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2.451560068375472</v>
+      </c>
+      <c r="C5">
+        <v>1.631250807461972</v>
+      </c>
+      <c r="D5">
+        <v>-1.136384491199137</v>
+      </c>
+      <c r="E5">
+        <v>1.288882177974849</v>
+      </c>
+      <c r="F5">
+        <v>2.617100029502487</v>
+      </c>
+      <c r="G5">
+        <v>-1.404849577761434</v>
+      </c>
+      <c r="H5">
+        <v>-1.838157574296937</v>
+      </c>
+      <c r="I5">
+        <v>0.3239328258660771</v>
+      </c>
+      <c r="J5">
+        <v>-3.12412545836584</v>
+      </c>
+      <c r="K5">
+        <v>4.41214789954688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.6713463558411743</v>
+      </c>
+      <c r="C6">
+        <v>1.456403131754811</v>
+      </c>
+      <c r="D6">
+        <v>2.410179470697346</v>
+      </c>
+      <c r="E6">
+        <v>-1.416845180694781</v>
+      </c>
+      <c r="F6">
+        <v>-1.843726900463117</v>
+      </c>
+      <c r="G6">
+        <v>0.2763261090784467</v>
+      </c>
+      <c r="H6">
+        <v>-3.157964936554458</v>
+      </c>
+      <c r="I6">
+        <v>4.381938073622721</v>
+      </c>
+      <c r="J6">
+        <v>0.8314869420358898</v>
+      </c>
+      <c r="K6">
+        <v>-0.8417899989297971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2.558311128377992</v>
+      </c>
+      <c r="C7">
+        <v>-1.61703114258315</v>
+      </c>
+      <c r="D7">
+        <v>-1.787905310785899</v>
+      </c>
+      <c r="E7">
+        <v>0.3172458133749849</v>
+      </c>
+      <c r="F7">
+        <v>-3.165321551741034</v>
+      </c>
+      <c r="G7">
+        <v>4.394211510218005</v>
+      </c>
+      <c r="H7">
+        <v>0.8470970267896389</v>
+      </c>
+      <c r="I7">
+        <v>-0.8314115959935573</v>
+      </c>
+      <c r="J7">
+        <v>-1.203936152349081</v>
+      </c>
+      <c r="K7">
+        <v>1.797584205437971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1.000583923879169</v>
+      </c>
+      <c r="C8">
+        <v>0.3330464057515683</v>
+      </c>
+      <c r="D8">
+        <v>-3.501808595795778</v>
+      </c>
+      <c r="E8">
+        <v>4.312478024421555</v>
+      </c>
+      <c r="F8">
+        <v>0.7516536693615905</v>
+      </c>
+      <c r="G8">
+        <v>-0.9702593289485597</v>
+      </c>
+      <c r="H8">
+        <v>-1.326653518038879</v>
+      </c>
+      <c r="I8">
+        <v>1.677947847921885</v>
+      </c>
+      <c r="J8">
+        <v>0.6973247173158894</v>
+      </c>
+      <c r="K8">
+        <v>-1.59689593491947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-4.035980535359728</v>
+      </c>
+      <c r="C9">
+        <v>4.281733970436962</v>
+      </c>
+      <c r="D9">
+        <v>1.060050001689662</v>
+      </c>
+      <c r="E9">
+        <v>-0.8800767286206297</v>
+      </c>
+      <c r="F9">
+        <v>-1.237312706125463</v>
+      </c>
+      <c r="G9">
+        <v>1.813922149940158</v>
+      </c>
+      <c r="H9">
+        <v>0.8182811675798158</v>
+      </c>
+      <c r="I9">
+        <v>-1.480935762477904</v>
+      </c>
+      <c r="J9">
+        <v>-1.83101885996277</v>
+      </c>
+      <c r="K9">
+        <v>2.400816341023468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.0297336039017963</v>
+      </c>
+      <c r="C10">
+        <v>-1.023359033907779</v>
+      </c>
+      <c r="D10">
+        <v>-0.869267155944665</v>
+      </c>
+      <c r="E10">
+        <v>1.851321450814572</v>
+      </c>
+      <c r="F10">
+        <v>0.8671359181158229</v>
+      </c>
+      <c r="G10">
+        <v>-1.373961301725209</v>
+      </c>
+      <c r="H10">
+        <v>-1.745011347826217</v>
+      </c>
+      <c r="I10">
+        <v>2.48271734209359</v>
+      </c>
+      <c r="J10">
+        <v>0.3007856631840057</v>
+      </c>
+      <c r="K10">
+        <v>-0.2444340177882403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.131091278350679</v>
+      </c>
+      <c r="C11">
+        <v>1.642837495150672</v>
+      </c>
+      <c r="D11">
+        <v>0.7042417988596263</v>
+      </c>
+      <c r="E11">
+        <v>-1.286160639479628</v>
+      </c>
+      <c r="F11">
+        <v>-1.752246416917782</v>
+      </c>
+      <c r="G11">
+        <v>2.452807261485723</v>
+      </c>
+      <c r="H11">
+        <v>0.2993245036869432</v>
+      </c>
+      <c r="I11">
+        <v>-0.2505920205412158</v>
+      </c>
+      <c r="J11">
+        <v>-1.732235314432763</v>
+      </c>
+      <c r="K11">
+        <v>0.07591040760561318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.3636878794241752</v>
+      </c>
+      <c r="C12">
+        <v>-1.480850976740869</v>
+      </c>
+      <c r="D12">
+        <v>-1.623235328945376</v>
+      </c>
+      <c r="E12">
+        <v>2.44452898475904</v>
+      </c>
+      <c r="F12">
+        <v>0.2650830578612836</v>
+      </c>
+      <c r="G12">
+        <v>-0.2464089501930713</v>
+      </c>
+      <c r="H12">
+        <v>-1.734903978400189</v>
+      </c>
+      <c r="I12">
+        <v>0.06709218995131727</v>
+      </c>
+      <c r="J12">
+        <v>0.997638680340651</v>
+      </c>
+      <c r="K12">
+        <v>0.9225122398852474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1.133793310742067</v>
+      </c>
+      <c r="C13">
+        <v>2.396506616762759</v>
+      </c>
+      <c r="D13">
+        <v>0.1334929590812335</v>
+      </c>
+      <c r="E13">
+        <v>-0.2424074626040421</v>
+      </c>
+      <c r="F13">
+        <v>-1.759145924760854</v>
+      </c>
+      <c r="G13">
+        <v>0.02504033491206281</v>
+      </c>
+      <c r="H13">
+        <v>0.9671701603683858</v>
+      </c>
+      <c r="I13">
+        <v>0.8917581291730856</v>
+      </c>
+      <c r="J13">
+        <v>-1.540527083993024</v>
+      </c>
+      <c r="K13">
+        <v>-0.07648217258257672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.5855037078925832</v>
+      </c>
+      <c r="C14">
+        <v>-0.3500558685895692</v>
+      </c>
+      <c r="D14">
+        <v>-1.531013389883137</v>
+      </c>
+      <c r="E14">
+        <v>0.01571105264383821</v>
+      </c>
+      <c r="F14">
+        <v>0.9649422761041804</v>
+      </c>
+      <c r="G14">
+        <v>0.9369298121875916</v>
+      </c>
+      <c r="H14">
+        <v>-1.512292777968344</v>
+      </c>
+      <c r="I14">
+        <v>-0.05264886514247225</v>
+      </c>
+      <c r="J14">
+        <v>-0.3382994898529339</v>
+      </c>
+      <c r="K14">
+        <v>-0.7236222237478239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1.175388651429754</v>
+      </c>
+      <c r="C15">
+        <v>-0.1162368441329322</v>
+      </c>
+      <c r="D15">
+        <v>0.8744227152943851</v>
+      </c>
+      <c r="E15">
+        <v>0.9386878373742611</v>
+      </c>
+      <c r="F15">
+        <v>-1.550010950011433</v>
+      </c>
+      <c r="G15">
+        <v>-0.09737356966267874</v>
+      </c>
+      <c r="H15">
+        <v>-0.3721388207766118</v>
+      </c>
+      <c r="I15">
+        <v>-0.759534533284935</v>
+      </c>
+      <c r="J15">
+        <v>-1.377648804732524</v>
+      </c>
+      <c r="K15">
+        <v>1.550224523917756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.3552134418812914</v>
+      </c>
+      <c r="C16">
+        <v>0.7362320718836142</v>
+      </c>
+      <c r="D16">
+        <v>-1.343310833598577</v>
+      </c>
+      <c r="E16">
+        <v>-0.08797516315622933</v>
+      </c>
+      <c r="F16">
+        <v>-0.3851574201046055</v>
+      </c>
+      <c r="G16">
+        <v>-0.7240937595609835</v>
+      </c>
+      <c r="H16">
+        <v>-1.353035944078457</v>
+      </c>
+      <c r="I16">
+        <v>1.568165001629739</v>
+      </c>
+      <c r="J16">
+        <v>-0.6267843906273527</v>
+      </c>
+      <c r="K16">
+        <v>-0.05459425183377231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1.183907986438387</v>
+      </c>
+      <c r="C17">
+        <v>0.05700775802553448</v>
+      </c>
+      <c r="D17">
+        <v>-0.4358955283822323</v>
+      </c>
+      <c r="E17">
+        <v>-0.71141671765916</v>
+      </c>
+      <c r="F17">
+        <v>-1.319553654061151</v>
+      </c>
+      <c r="G17">
+        <v>1.582133422844289</v>
+      </c>
+      <c r="H17">
+        <v>-0.6110836150814311</v>
+      </c>
+      <c r="I17">
+        <v>-0.03539985811346014</v>
+      </c>
+      <c r="J17">
+        <v>-3.537205679518259</v>
+      </c>
+      <c r="K17">
+        <v>4.784984400263594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.3341125450935086</v>
+      </c>
+      <c r="C18">
+        <v>-0.3508114577303035</v>
+      </c>
+      <c r="D18">
+        <v>-0.8760990133289467</v>
+      </c>
+      <c r="E18">
+        <v>-1.365850698791239</v>
+      </c>
+      <c r="F18">
+        <v>1.549247401710418</v>
+      </c>
+      <c r="G18">
+        <v>-0.6723735983230095</v>
+      </c>
+      <c r="H18">
+        <v>-0.09041745470805995</v>
+      </c>
+      <c r="I18">
+        <v>-3.588418648010414</v>
+      </c>
+      <c r="J18">
+        <v>4.731285395698713</v>
+      </c>
+      <c r="K18">
+        <v>0.9037942130729857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.683652730876144</v>
+      </c>
+      <c r="C19">
+        <v>-0.8805789581820997</v>
+      </c>
+      <c r="D19">
+        <v>-1.196102773105657</v>
+      </c>
+      <c r="E19">
+        <v>1.602640335434466</v>
+      </c>
+      <c r="F19">
+        <v>-0.6155938371719847</v>
+      </c>
+      <c r="G19">
+        <v>-0.01273115972318184</v>
+      </c>
+      <c r="H19">
+        <v>-3.517909015219086</v>
+      </c>
+      <c r="I19">
+        <v>4.800101007260582</v>
+      </c>
+      <c r="J19">
+        <v>0.9744931146455251</v>
+      </c>
+      <c r="K19">
+        <v>-0.2997701464397722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1.058735208844254</v>
+      </c>
+      <c r="C20">
+        <v>-1.386999006280221</v>
+      </c>
+      <c r="D20">
+        <v>1.549332777060623</v>
+      </c>
+      <c r="E20">
+        <v>-0.7099199683210056</v>
+      </c>
+      <c r="F20">
+        <v>-0.1254456407988778</v>
+      </c>
+      <c r="G20">
+        <v>-3.615789618673908</v>
+      </c>
+      <c r="H20">
+        <v>4.701809843085441</v>
+      </c>
+      <c r="I20">
+        <v>0.8730718431514469</v>
+      </c>
+      <c r="J20">
+        <v>-0.4001795282862969</v>
+      </c>
+      <c r="K20">
+        <v>4.109053225130578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1.648727594640484</v>
+      </c>
+      <c r="C21">
+        <v>1.462507427632228</v>
+      </c>
+      <c r="D21">
+        <v>-0.6721476239130408</v>
+      </c>
+      <c r="E21">
+        <v>-0.1515068856602781</v>
+      </c>
+      <c r="F21">
+        <v>-3.647989130500227</v>
+      </c>
+      <c r="G21">
+        <v>4.682660325192878</v>
+      </c>
+      <c r="H21">
+        <v>0.8517292273033832</v>
+      </c>
+      <c r="I21">
+        <v>-0.4233051323841132</v>
+      </c>
+      <c r="J21">
+        <v>4.086760318251222</v>
+      </c>
+      <c r="K21">
+        <v>-0.2304354376121681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1.06218499483979</v>
+      </c>
+      <c r="C22">
+        <v>-0.8852389630105697</v>
+      </c>
+      <c r="D22">
+        <v>-0.0558786353357319</v>
+      </c>
+      <c r="E22">
+        <v>-3.70716334433386</v>
+      </c>
+      <c r="F22">
+        <v>4.594578303184172</v>
+      </c>
+      <c r="G22">
+        <v>0.8144047504659724</v>
+      </c>
+      <c r="H22">
+        <v>-0.4699199680661165</v>
+      </c>
+      <c r="I22">
+        <v>4.029691742782072</v>
+      </c>
+      <c r="J22">
+        <v>-0.2815567415983687</v>
+      </c>
+      <c r="K22">
+        <v>-0.6884749412588014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-1.340115292431498</v>
+      </c>
+      <c r="C23">
+        <v>-0.353195832274076</v>
+      </c>
+      <c r="D23">
+        <v>-3.440436284661193</v>
+      </c>
+      <c r="E23">
+        <v>4.643106980273811</v>
+      </c>
+      <c r="F23">
+        <v>0.7820040214703584</v>
+      </c>
+      <c r="G23">
+        <v>-0.4192578927116719</v>
+      </c>
+      <c r="H23">
+        <v>4.075771321973281</v>
+      </c>
+      <c r="I23">
+        <v>-0.2560267305039844</v>
+      </c>
+      <c r="J23">
+        <v>-0.6552992021731622</v>
+      </c>
+      <c r="K23">
+        <v>0.1039294925726918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.05068199948299379</v>
+      </c>
+      <c r="C24">
+        <v>-3.231842090227025</v>
+      </c>
+      <c r="D24">
+        <v>4.599304726625893</v>
+      </c>
+      <c r="E24">
+        <v>0.8602096247968869</v>
+      </c>
+      <c r="F24">
+        <v>-0.3248604380118332</v>
+      </c>
+      <c r="G24">
+        <v>4.132638447728763</v>
+      </c>
+      <c r="H24">
+        <v>-0.1886245657752045</v>
+      </c>
+      <c r="I24">
+        <v>-0.5822688371598701</v>
+      </c>
+      <c r="J24">
+        <v>0.1720074739919267</v>
+      </c>
+      <c r="K24">
+        <v>-1.600325323120769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-3.377437691350778</v>
+      </c>
+      <c r="C25">
+        <v>4.529096781379431</v>
+      </c>
+      <c r="D25">
+        <v>0.9789225614280446</v>
+      </c>
+      <c r="E25">
+        <v>-0.2924999983369396</v>
+      </c>
+      <c r="F25">
+        <v>4.142616210569781</v>
+      </c>
+      <c r="G25">
+        <v>-0.1468258169145158</v>
+      </c>
+      <c r="H25">
+        <v>-0.5455501989603571</v>
+      </c>
+      <c r="I25">
+        <v>0.2017583108656847</v>
+      </c>
+      <c r="J25">
+        <v>-1.566681958130874</v>
+      </c>
+      <c r="K25">
+        <v>2.139513935359049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>4.801485318762561</v>
+      </c>
+      <c r="C26">
+        <v>0.913267839525427</v>
+      </c>
+      <c r="D26">
+        <v>-0.3319556201640653</v>
+      </c>
+      <c r="E26">
+        <v>4.183318683871708</v>
+      </c>
+      <c r="F26">
+        <v>-0.1443451787808422</v>
+      </c>
+      <c r="G26">
+        <v>-0.5496348297789975</v>
+      </c>
+      <c r="H26">
+        <v>0.2104665134444246</v>
+      </c>
+      <c r="I26">
+        <v>-1.561198728680113</v>
+      </c>
+      <c r="J26">
+        <v>2.142823683514327</v>
+      </c>
+      <c r="K26">
+        <v>0.7899716644520379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.3717561422703723</v>
+      </c>
+      <c r="C27">
+        <v>-0.8791019322052089</v>
+      </c>
+      <c r="D27">
+        <v>4.723422806035984</v>
+      </c>
+      <c r="E27">
+        <v>-0.2434644514457658</v>
+      </c>
+      <c r="F27">
+        <v>-0.7089467587897555</v>
+      </c>
+      <c r="G27">
+        <v>0.2580654574225746</v>
+      </c>
+      <c r="H27">
+        <v>-1.577742318730656</v>
+      </c>
+      <c r="I27">
+        <v>2.092202407356854</v>
+      </c>
+      <c r="J27">
+        <v>0.7711425963514449</v>
+      </c>
+      <c r="K27">
+        <v>1.026220945753324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>1.317909765080107</v>
+      </c>
+      <c r="C28">
+        <v>3.797168329633632</v>
+      </c>
+      <c r="D28">
+        <v>-0.4269883030396099</v>
+      </c>
+      <c r="E28">
+        <v>-0.3270824085490708</v>
+      </c>
+      <c r="F28">
+        <v>0.2092499475065616</v>
+      </c>
+      <c r="G28">
+        <v>-1.610904003810268</v>
+      </c>
+      <c r="H28">
+        <v>2.171877149624135</v>
+      </c>
+      <c r="I28">
+        <v>0.8014493027578454</v>
+      </c>
+      <c r="J28">
+        <v>1.044988844403852</v>
+      </c>
+      <c r="K28">
+        <v>-0.08570940516299164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>4.868353134686993</v>
+      </c>
+      <c r="C29">
+        <v>-0.5057144731676827</v>
+      </c>
+      <c r="D29">
+        <v>-0.6382104669498487</v>
+      </c>
+      <c r="E29">
+        <v>0.3608051673070891</v>
+      </c>
+      <c r="F29">
+        <v>-1.587973328183784</v>
+      </c>
+      <c r="G29">
+        <v>2.104050342715349</v>
+      </c>
+      <c r="H29">
+        <v>0.8131736491205633</v>
+      </c>
+      <c r="I29">
+        <v>1.051925846892968</v>
+      </c>
+      <c r="J29">
+        <v>-0.1020868192923516</v>
+      </c>
+      <c r="K29">
+        <v>1.631323344741358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.161480604400402</v>
+      </c>
+      <c r="C30">
+        <v>0.2507779444996481</v>
+      </c>
+      <c r="D30">
+        <v>-0.5697470420513719</v>
+      </c>
+      <c r="E30">
+        <v>-1.516687622035615</v>
+      </c>
+      <c r="F30">
+        <v>2.3589959397342</v>
+      </c>
+      <c r="G30">
+        <v>0.6652987897018862</v>
+      </c>
+      <c r="H30">
+        <v>1.009361028138957</v>
+      </c>
+      <c r="I30">
+        <v>-0.05633312782496203</v>
+      </c>
+      <c r="J30">
+        <v>1.60647940076914</v>
+      </c>
+      <c r="K30">
+        <v>1.777570978320599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.6228858727657893</v>
+      </c>
+      <c r="C31">
+        <v>0.4094712395283026</v>
+      </c>
+      <c r="D31">
+        <v>-1.394739097106807</v>
+      </c>
+      <c r="E31">
+        <v>2.215146711838581</v>
+      </c>
+      <c r="F31">
+        <v>0.91640298512986</v>
+      </c>
+      <c r="G31">
+        <v>1.188024152733261</v>
+      </c>
+      <c r="H31">
+        <v>0.01952723792658473</v>
+      </c>
+      <c r="I31">
+        <v>1.748443717015282</v>
+      </c>
+      <c r="J31">
+        <v>1.92733335770093</v>
+      </c>
+      <c r="K31">
+        <v>1.893240954502724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.2696417855765004</v>
+      </c>
+      <c r="C32">
+        <v>-1.614289770673047</v>
+      </c>
+      <c r="D32">
+        <v>2.347735810496459</v>
+      </c>
+      <c r="E32">
+        <v>0.921189511792661</v>
+      </c>
+      <c r="F32">
+        <v>1.105398905390152</v>
+      </c>
+      <c r="G32">
+        <v>0.02979362249283102</v>
+      </c>
+      <c r="H32">
+        <v>1.752413480389771</v>
+      </c>
+      <c r="I32">
+        <v>1.895710647137968</v>
+      </c>
+      <c r="J32">
+        <v>1.880529444923089</v>
+      </c>
+      <c r="K32">
+        <v>0.8280725750199738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.13114668368188</v>
+      </c>
+      <c r="C33">
+        <v>1.742666631567946</v>
+      </c>
+      <c r="D33">
+        <v>0.5711375823114974</v>
+      </c>
+      <c r="E33">
+        <v>1.482408709799302</v>
+      </c>
+      <c r="F33">
+        <v>-0.03207898350142768</v>
+      </c>
+      <c r="G33">
+        <v>1.599008421811034</v>
+      </c>
+      <c r="H33">
+        <v>1.962174432224697</v>
+      </c>
+      <c r="I33">
+        <v>1.882496678171399</v>
+      </c>
+      <c r="J33">
+        <v>0.7708382429261704</v>
+      </c>
+      <c r="K33">
+        <v>1.964522524714165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>1.827023400069947</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>0.4888028508193502</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>1.471596344594558</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>0.007347806326601258</v>
+      </c>
+      <c r="F34">
+        <v>1.588860911059396</v>
+      </c>
+      <c r="G34">
+        <v>1.947337590876925</v>
+      </c>
+      <c r="H34">
+        <v>1.89204969391759</v>
+      </c>
+      <c r="I34">
+        <v>0.7728960159151987</v>
+      </c>
+      <c r="J34">
+        <v>1.958518439087574</v>
+      </c>
+      <c r="K34">
+        <v>1.295963201187878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>0.06190938385428302</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>2.26017545783639</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>-0.2558836427411291</v>
+      </c>
+      <c r="E35">
+        <v>1.246425756096891</v>
+      </c>
+      <c r="F35">
+        <v>2.066184569109413</v>
+      </c>
+      <c r="G35">
+        <v>1.859708481389941</v>
+      </c>
+      <c r="H35">
+        <v>0.6119859734886953</v>
+      </c>
+      <c r="I35">
+        <v>1.910929136767185</v>
+      </c>
+      <c r="J35">
+        <v>1.255730557254227</v>
+      </c>
+      <c r="K35">
+        <v>0.9072349556365198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>2.750952690361402</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>-0.5685323890927088</v>
+      </c>
+      <c r="D36">
+        <v>1.099336473843246</v>
+      </c>
+      <c r="E36">
+        <v>2.109713815817977</v>
+      </c>
+      <c r="F36">
+        <v>1.76264761573322</v>
+      </c>
+      <c r="G36">
+        <v>0.5186442976695476</v>
+      </c>
+      <c r="H36">
+        <v>1.861806893584042</v>
+      </c>
+      <c r="I36">
+        <v>1.182766877946806</v>
+      </c>
+      <c r="J36">
+        <v>0.8320577075686965</v>
+      </c>
+      <c r="K36">
+        <v>0.7243956030543357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>0.7320287013142677</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>1.522302341005567</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>1.467338125109618</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>1.793638825175652</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.677999698236624</v>
+      </c>
+      <c r="G37">
+        <v>1.741859006123216</v>
+      </c>
+      <c r="H37">
+        <v>1.118463222389436</v>
+      </c>
+      <c r="I37">
+        <v>0.8458034752539987</v>
+      </c>
+      <c r="J37">
+        <v>0.6898869152123258</v>
+      </c>
+      <c r="K37">
+        <v>0.473162559883601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>1.9795770604465</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>1.392536339603099</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>1.481510914913067</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.5495882858316863</v>
+      </c>
+      <c r="F38">
+        <v>1.646265717678995</v>
+      </c>
+      <c r="G38">
+        <v>0.9624354823172134</v>
+      </c>
+      <c r="H38">
+        <v>0.6946493953545967</v>
+      </c>
+      <c r="I38">
+        <v>0.5552724956881216</v>
+      </c>
+      <c r="J38">
+        <v>0.3325484856772042</v>
+      </c>
+      <c r="K38">
+        <v>0.4721920549197476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>1.30090756340108</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>1.963500078556037</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>0.4445961937514334</v>
+      </c>
+      <c r="E39">
+        <v>1.596344060894952</v>
+      </c>
+      <c r="F39">
+        <v>1.02220498890233</v>
+      </c>
+      <c r="G39">
+        <v>0.7092913393505274</v>
+      </c>
+      <c r="H39">
+        <v>0.5601932978503645</v>
+      </c>
+      <c r="I39">
+        <v>0.3499962282384746</v>
+      </c>
+      <c r="J39">
+        <v>0.4879072232831797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>2.012737994557474</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.7403123565715917</v>
+      </c>
+      <c r="D40">
+        <v>1.433818452601332</v>
+      </c>
+      <c r="E40">
+        <v>0.9497534119557898</v>
+      </c>
+      <c r="F40">
+        <v>0.7298655388265476</v>
+      </c>
+      <c r="G40">
+        <v>0.5258654170934298</v>
+      </c>
+      <c r="H40">
+        <v>0.3090287986856384</v>
+      </c>
+      <c r="I40">
+        <v>0.4635204163707518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.8535918672211444</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>1.782613822028589</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.7889205787030562</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>0.6461210271256811</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>0.5323553410679266</v>
+      </c>
+      <c r="G41">
+        <v>0.2768565178553412</v>
+      </c>
+      <c r="H41">
+        <v>0.4210073694104794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>1.972402569862437</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.8237969262448452</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>0.4993394432980468</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>0.4591344678357677</v>
+      </c>
+      <c r="F42">
+        <v>0.2243478747645702</v>
+      </c>
+      <c r="G42">
+        <v>0.3483362424206175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.796001625707733</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>0.9151352642427935</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>0.3687495555490187</v>
+      </c>
+      <c r="E43">
+        <v>0.1821182294781293</v>
+      </c>
+      <c r="F43">
+        <v>0.3937388773370095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>1.082826669985442</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>0.3935261511656301</v>
+      </c>
+      <c r="D44">
+        <v>0.06540634303695037</v>
+      </c>
+      <c r="E44">
+        <v>0.3242309254185909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.573129683809814</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>0.1945252858301101</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.2603721808367071</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.1824667929082922</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.4481552108942597</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.3345343741504182</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1.602065061688767</v>
-      </c>
-      <c r="C2">
-        <v>3.04003431312337</v>
-      </c>
-      <c r="D2">
-        <v>-5.938674847989947</v>
-      </c>
-      <c r="E2">
-        <v>0.711740365345836</v>
-      </c>
-      <c r="F2">
-        <v>1.004187453457734</v>
-      </c>
-      <c r="G2">
-        <v>-1.571576459402547</v>
-      </c>
-      <c r="H2">
-        <v>1.677040253876188</v>
-      </c>
-      <c r="I2">
-        <v>1.413579134973207</v>
-      </c>
-      <c r="J2">
-        <v>-1.1970418117026</v>
-      </c>
-      <c r="K2">
-        <v>1.063997643474595</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-5.964533143146513</v>
-      </c>
-      <c r="C3">
-        <v>1.176669382365755</v>
-      </c>
-      <c r="D3">
-        <v>1.257909854851463</v>
-      </c>
-      <c r="E3">
-        <v>-1.316511037723468</v>
-      </c>
-      <c r="F3">
-        <v>1.953767573022166</v>
-      </c>
-      <c r="G3">
-        <v>1.68470952429612</v>
-      </c>
-      <c r="H3">
-        <v>-0.9267333470265362</v>
-      </c>
-      <c r="I3">
-        <v>1.335090377852552</v>
-      </c>
-      <c r="J3">
-        <v>2.689117542185831</v>
-      </c>
-      <c r="K3">
-        <v>-1.30947372129706</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.1912892836565094</v>
-      </c>
-      <c r="C4">
-        <v>-1.883142166085352</v>
-      </c>
-      <c r="D4">
-        <v>2.40342068983337</v>
-      </c>
-      <c r="E4">
-        <v>1.59145081812635</v>
-      </c>
-      <c r="F4">
-        <v>-1.01940872675969</v>
-      </c>
-      <c r="G4">
-        <v>1.347470452837819</v>
-      </c>
-      <c r="H4">
-        <v>2.663069105302687</v>
-      </c>
-      <c r="I4">
-        <v>-1.341821941620366</v>
-      </c>
-      <c r="J4">
-        <v>-1.778606615788304</v>
-      </c>
-      <c r="K4">
-        <v>0.3811183547683571</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>2.451560068375472</v>
-      </c>
-      <c r="C5">
-        <v>1.631250807461972</v>
-      </c>
-      <c r="D5">
-        <v>-1.136384491199137</v>
-      </c>
-      <c r="E5">
-        <v>1.288882177974849</v>
-      </c>
-      <c r="F5">
-        <v>2.617100029502487</v>
-      </c>
-      <c r="G5">
-        <v>-1.404849577761434</v>
-      </c>
-      <c r="H5">
-        <v>-1.838157574296937</v>
-      </c>
-      <c r="I5">
-        <v>0.3239328258660771</v>
-      </c>
-      <c r="J5">
-        <v>-3.12412545836584</v>
-      </c>
-      <c r="K5">
-        <v>4.41214789954688</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>-0.6713463558411743</v>
-      </c>
-      <c r="C6">
-        <v>1.456403131754811</v>
-      </c>
-      <c r="D6">
-        <v>2.410179470697346</v>
-      </c>
-      <c r="E6">
-        <v>-1.416845180694781</v>
-      </c>
-      <c r="F6">
-        <v>-1.843726900463117</v>
-      </c>
-      <c r="G6">
-        <v>0.2763261090784467</v>
-      </c>
-      <c r="H6">
-        <v>-3.157964936554458</v>
-      </c>
-      <c r="I6">
-        <v>4.381938073622721</v>
-      </c>
-      <c r="J6">
-        <v>0.8314869420358898</v>
-      </c>
-      <c r="K6">
-        <v>-0.8417899989297971</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.558311128377992</v>
+        <v>-5.671486825688698</v>
       </c>
       <c r="C7">
-        <v>-1.61703114258315</v>
+        <v>0.8694854618587151</v>
       </c>
       <c r="D7">
-        <v>-1.787905310785899</v>
+        <v>2.842640475309816</v>
       </c>
       <c r="E7">
-        <v>0.3172458133749849</v>
+        <v>-5.853590775736644</v>
       </c>
       <c r="F7">
-        <v>-3.165321551741034</v>
+        <v>0.7091617359126462</v>
       </c>
       <c r="G7">
-        <v>4.394211510218005</v>
+        <v>0.9990098985190516</v>
       </c>
       <c r="H7">
-        <v>0.8470970267896389</v>
+        <v>-1.570450117525508</v>
       </c>
       <c r="I7">
-        <v>-0.8314115959935573</v>
+        <v>1.677176506711137</v>
       </c>
       <c r="J7">
-        <v>-1.203936152349081</v>
+        <v>1.413479165989774</v>
       </c>
       <c r="K7">
-        <v>1.797584205437971</v>
+        <v>-1.197032425163824</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.000583923879169</v>
+        <v>2.81678218015325</v>
       </c>
       <c r="C8">
-        <v>0.3330464057515683</v>
+        <v>-5.388661758716726</v>
       </c>
       <c r="D8">
-        <v>-3.501808595795778</v>
+        <v>0.962884137306376</v>
       </c>
       <c r="E8">
-        <v>4.312478024421555</v>
+        <v>1.254075320198131</v>
       </c>
       <c r="F8">
-        <v>0.7516536693615905</v>
+        <v>-1.29372279837953</v>
       </c>
       <c r="G8">
-        <v>-0.9702593289485597</v>
+        <v>1.94830689603405</v>
       </c>
       <c r="H8">
-        <v>-1.326653518038879</v>
+        <v>1.683787630665838</v>
       </c>
       <c r="I8">
-        <v>1.677947847921885</v>
+        <v>-0.9259396907858677</v>
       </c>
       <c r="J8">
-        <v>0.6973247173158894</v>
+        <v>1.334980598463436</v>
       </c>
       <c r="K8">
-        <v>-1.59689593491947</v>
+        <v>2.689064788670529</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-4.035980535359728</v>
+        <v>-0.4863150012015967</v>
       </c>
       <c r="C9">
-        <v>4.281733970436962</v>
+        <v>0.6874441918362473</v>
       </c>
       <c r="D9">
-        <v>1.060050001689662</v>
+        <v>-0.844069681568326</v>
       </c>
       <c r="E9">
-        <v>-0.8800767286206297</v>
+        <v>1.85504818986428</v>
       </c>
       <c r="F9">
-        <v>-1.237312706125463</v>
+        <v>1.591112250932684</v>
       </c>
       <c r="G9">
-        <v>1.813922149940158</v>
+        <v>-0.9135596158006002</v>
       </c>
       <c r="H9">
-        <v>0.8182811675798158</v>
+        <v>1.308932161580292</v>
       </c>
       <c r="I9">
-        <v>-1.480935762477904</v>
+        <v>2.656716568347222</v>
       </c>
       <c r="J9">
-        <v>-1.83101885996277</v>
+        <v>-1.332075006104203</v>
       </c>
       <c r="K9">
-        <v>2.400816341023468</v>
+        <v>-1.780936597262898</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.0297336039017963</v>
+        <v>-0.7959303030262241</v>
       </c>
       <c r="C10">
-        <v>-1.023359033907779</v>
+        <v>1.894848179199903</v>
       </c>
       <c r="D10">
-        <v>-0.869267155944665</v>
+        <v>1.474136486493237</v>
       </c>
       <c r="E10">
-        <v>1.851321450814572</v>
+        <v>-0.97214789066357</v>
       </c>
       <c r="F10">
-        <v>0.8671359181158229</v>
+        <v>1.262963085780092</v>
       </c>
       <c r="G10">
-        <v>-1.373961301725209</v>
+        <v>2.593688932206153</v>
       </c>
       <c r="H10">
-        <v>-1.745011347826217</v>
+        <v>-1.391625964612836</v>
       </c>
       <c r="I10">
-        <v>2.48271734209359</v>
+        <v>-1.838122126165179</v>
       </c>
       <c r="J10">
-        <v>0.3007856631840057</v>
+        <v>0.3213124992367958</v>
       </c>
       <c r="K10">
-        <v>-0.2444340177882403</v>
+        <v>-3.123224535438796</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.131091278350679</v>
+        <v>1.9391746218512</v>
       </c>
       <c r="C11">
-        <v>1.642837495150672</v>
+        <v>-0.8046269368836088</v>
       </c>
       <c r="D11">
-        <v>0.7042417988596263</v>
+        <v>1.056042526974951</v>
       </c>
       <c r="E11">
-        <v>-1.286160639479628</v>
+        <v>2.581693329272807</v>
       </c>
       <c r="F11">
-        <v>-1.752246416917782</v>
+        <v>-1.397195290779016</v>
       </c>
       <c r="G11">
-        <v>2.452807261485723</v>
+        <v>-1.885728842952809</v>
       </c>
       <c r="H11">
-        <v>0.2993245036869432</v>
+        <v>0.2874730210481778</v>
       </c>
       <c r="I11">
-        <v>-0.2505920205412158</v>
+        <v>-3.153434361362954</v>
       </c>
       <c r="J11">
-        <v>-1.732235314432763</v>
+        <v>4.378035005625402</v>
       </c>
       <c r="K11">
-        <v>0.07591040760561318</v>
+        <v>0.8319721963387258</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3636878794241752</v>
+        <v>1.204174184655598</v>
       </c>
       <c r="C12">
-        <v>-1.480850976740869</v>
+        <v>2.381507367384438</v>
       </c>
       <c r="D12">
-        <v>-1.623235328945376</v>
+        <v>-1.341373701101798</v>
       </c>
       <c r="E12">
-        <v>2.44452898475904</v>
+        <v>-1.844809138656271</v>
       </c>
       <c r="F12">
-        <v>0.2650830578612836</v>
+        <v>0.2801164058616012</v>
       </c>
       <c r="G12">
-        <v>-0.2464089501930713</v>
+        <v>-3.14116092476767</v>
       </c>
       <c r="H12">
-        <v>-1.734903978400189</v>
+        <v>4.393645090379152</v>
       </c>
       <c r="I12">
-        <v>0.06709218995131727</v>
+        <v>0.8423505992749656</v>
       </c>
       <c r="J12">
-        <v>0.997638680340651</v>
+        <v>-0.8296938851082075</v>
       </c>
       <c r="K12">
-        <v>0.9225122398852474</v>
+        <v>-1.203545886427776</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1.133793310742067</v>
+        <v>-0.554052314195068</v>
       </c>
       <c r="C13">
-        <v>2.396506616762759</v>
+        <v>-1.829008546279687</v>
       </c>
       <c r="D13">
-        <v>0.1334929590812335</v>
+        <v>-0.05637063819314239</v>
       </c>
       <c r="E13">
-        <v>-0.2424074626040421</v>
+        <v>-3.22289441056412</v>
       </c>
       <c r="F13">
-        <v>-1.759145924760854</v>
+        <v>4.298201732951103</v>
       </c>
       <c r="G13">
-        <v>0.02504033491206281</v>
+        <v>0.7035028663199632</v>
       </c>
       <c r="H13">
-        <v>0.9671701603683858</v>
+        <v>-0.9524112507980054</v>
       </c>
       <c r="I13">
-        <v>0.8917581291730856</v>
+        <v>-1.323182243943861</v>
       </c>
       <c r="J13">
-        <v>-1.540527083993024</v>
+        <v>1.673486669114662</v>
       </c>
       <c r="K13">
-        <v>-0.07648217258257672</v>
+        <v>0.6980735051658833</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5855037078925832</v>
+        <v>-0.5905425777570921</v>
       </c>
       <c r="C14">
-        <v>-0.3500558685895692</v>
+        <v>-3.253638464548714</v>
       </c>
       <c r="D14">
-        <v>-1.531013389883137</v>
+        <v>4.606598065279174</v>
       </c>
       <c r="E14">
-        <v>0.01571105264383821</v>
+        <v>0.7936854666478932</v>
       </c>
       <c r="F14">
-        <v>0.9649422761041804</v>
+        <v>-0.8630704388845888</v>
       </c>
       <c r="G14">
-        <v>0.9369298121875916</v>
+        <v>-1.187207941925589</v>
       </c>
       <c r="H14">
-        <v>-1.512292777968344</v>
+        <v>1.794443119378588</v>
       </c>
       <c r="I14">
-        <v>-0.05264886514247225</v>
+        <v>0.8140336776074497</v>
       </c>
       <c r="J14">
-        <v>-0.3382994898529339</v>
+        <v>-1.475525299799133</v>
       </c>
       <c r="K14">
-        <v>-0.7236222237478239</v>
+        <v>-1.831854317747091</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1.175388651429754</v>
+        <v>3.576281667491309</v>
       </c>
       <c r="C15">
-        <v>-0.1162368441329322</v>
+        <v>0.6504031613607434</v>
       </c>
       <c r="D15">
-        <v>0.8744227152943851</v>
+        <v>-0.4950248887037911</v>
       </c>
       <c r="E15">
-        <v>0.9386878373742611</v>
+        <v>-1.149808641051175</v>
       </c>
       <c r="F15">
-        <v>-1.550010950011433</v>
+        <v>1.843297869914595</v>
       </c>
       <c r="G15">
-        <v>-0.09737356966267874</v>
+        <v>0.9210081383601441</v>
       </c>
       <c r="H15">
-        <v>-0.3721388207766118</v>
+        <v>-1.389517787662581</v>
       </c>
       <c r="I15">
-        <v>-0.759534533284935</v>
+        <v>-1.749953316676969</v>
       </c>
       <c r="J15">
-        <v>-1.377648804732524</v>
+        <v>2.487125804889406</v>
       </c>
       <c r="K15">
-        <v>1.550224523917756</v>
+        <v>0.3002968346996191</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3552134418812914</v>
+        <v>0.5053335455915529</v>
       </c>
       <c r="C16">
-        <v>0.7362320718836142</v>
+        <v>-1.358292596715075</v>
       </c>
       <c r="D16">
-        <v>-1.343310833598577</v>
+        <v>1.680403750658399</v>
       </c>
       <c r="E16">
-        <v>-0.08797516315622933</v>
+        <v>1.008808800605726</v>
       </c>
       <c r="F16">
-        <v>-0.3851574201046055</v>
+        <v>-1.396752856754145</v>
       </c>
       <c r="G16">
-        <v>-0.7240937595609835</v>
+        <v>-1.779863397284836</v>
       </c>
       <c r="H16">
-        <v>-1.353035944078457</v>
+        <v>2.485664645392344</v>
       </c>
       <c r="I16">
-        <v>1.568165001629739</v>
+        <v>0.2941388319466436</v>
       </c>
       <c r="J16">
-        <v>-0.6267843906273527</v>
+        <v>-0.2558434956277781</v>
       </c>
       <c r="K16">
-        <v>-0.05459425183377231</v>
+        <v>-1.729361909483962</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1.183907986438387</v>
+        <v>1.339849831222948</v>
       </c>
       <c r="C17">
-        <v>0.05700775802553448</v>
+        <v>0.814118463344484</v>
       </c>
       <c r="D17">
-        <v>-0.4358955283822323</v>
+        <v>-1.267741768781739</v>
       </c>
       <c r="E17">
-        <v>-0.71141671765916</v>
+        <v>-1.788141674011519</v>
       </c>
       <c r="F17">
-        <v>-1.319553654061151</v>
+        <v>2.451423199566685</v>
       </c>
       <c r="G17">
-        <v>1.582133422844289</v>
+        <v>0.2983219022947881</v>
       </c>
       <c r="H17">
-        <v>-0.6110836150814311</v>
+        <v>-0.2585121595952037</v>
       </c>
       <c r="I17">
-        <v>-0.03539985811346014</v>
+        <v>-1.738180127138258</v>
       </c>
       <c r="J17">
-        <v>-3.537205679518259</v>
+        <v>0.07074032370403782</v>
       </c>
       <c r="K17">
-        <v>4.784984400263594</v>
+        <v>0.9971770310456631</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.3341125450935086</v>
+        <v>-0.7782997505784299</v>
       </c>
       <c r="C18">
-        <v>-0.3508114577303035</v>
+        <v>-1.8361640420078</v>
       </c>
       <c r="D18">
-        <v>-0.8760990133289467</v>
+        <v>2.319833100786634</v>
       </c>
       <c r="E18">
-        <v>-1.365850698791239</v>
+        <v>0.3023233898838172</v>
       </c>
       <c r="F18">
-        <v>1.549247401710418</v>
+        <v>-0.2827541059558693</v>
       </c>
       <c r="G18">
-        <v>-0.6723735983230095</v>
+        <v>-1.780231982177512</v>
       </c>
       <c r="H18">
-        <v>-0.09041745470805995</v>
+        <v>0.04027180373177264</v>
       </c>
       <c r="I18">
-        <v>-3.588418648010414</v>
+        <v>0.9664229203335013</v>
       </c>
       <c r="J18">
-        <v>4.731285395698713</v>
+        <v>0.8888962851724813</v>
       </c>
       <c r="K18">
-        <v>0.9037942130729857</v>
+        <v>-1.539425260464403</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.683652730876144</v>
+        <v>1.600836433812818</v>
       </c>
       <c r="C19">
-        <v>-0.8805789581820997</v>
+        <v>0.1946749838982902</v>
       </c>
       <c r="D19">
-        <v>-1.196102773105657</v>
+        <v>-0.05462157107815235</v>
       </c>
       <c r="E19">
-        <v>1.602640335434466</v>
+        <v>-1.789561264445737</v>
       </c>
       <c r="F19">
-        <v>-0.6155938371719847</v>
+        <v>0.03804391946756724</v>
       </c>
       <c r="G19">
-        <v>-0.01273115972318184</v>
+        <v>1.011594603348007</v>
       </c>
       <c r="H19">
-        <v>-3.517909015219086</v>
+        <v>0.9171305911971613</v>
       </c>
       <c r="I19">
-        <v>4.800101007260582</v>
+        <v>-1.515591953024298</v>
       </c>
       <c r="J19">
-        <v>0.9744931146455251</v>
+        <v>-0.04745025245454915</v>
       </c>
       <c r="K19">
-        <v>-0.2997701464397722</v>
+        <v>-0.3392991498005469</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1.058735208844254</v>
+        <v>0.3010031673752307</v>
       </c>
       <c r="C20">
-        <v>-1.386999006280221</v>
+        <v>-1.921509161222507</v>
       </c>
       <c r="D20">
-        <v>1.549332777060623</v>
+        <v>-0.0524756413422281</v>
       </c>
       <c r="E20">
-        <v>-0.7099199683210056</v>
+        <v>1.013352628534677</v>
       </c>
       <c r="F20">
-        <v>-0.1254456407988778</v>
+        <v>0.8794124191540724</v>
       </c>
       <c r="G20">
-        <v>-3.615789618673908</v>
+        <v>-1.560316657544505</v>
       </c>
       <c r="H20">
-        <v>4.701809843085441</v>
+        <v>-0.081289583378227</v>
       </c>
       <c r="I20">
-        <v>0.8730718431514469</v>
+        <v>-0.375211459337658</v>
       </c>
       <c r="J20">
-        <v>-0.4001795282862969</v>
+        <v>-0.7619718786798015</v>
       </c>
       <c r="K20">
-        <v>4.109053225130578</v>
+        <v>-1.37619022256277</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1.648727594640484</v>
+        <v>-0.5716849147553217</v>
       </c>
       <c r="C21">
-        <v>1.462507427632228</v>
+        <v>0.8108968630440299</v>
       </c>
       <c r="D21">
-        <v>-0.6721476239130408</v>
+        <v>1.086112535566929</v>
       </c>
       <c r="E21">
-        <v>-0.1515068856602781</v>
+        <v>-1.550918251038055</v>
       </c>
       <c r="F21">
-        <v>-3.647989130500227</v>
+        <v>-0.09430818270622077</v>
       </c>
       <c r="G21">
-        <v>4.682660325192878</v>
+        <v>-0.3397706856137065</v>
       </c>
       <c r="H21">
-        <v>0.8517292273033832</v>
+        <v>-0.7373590180257339</v>
       </c>
       <c r="I21">
-        <v>-0.4233051323841132</v>
+        <v>-1.358249744850787</v>
       </c>
       <c r="J21">
-        <v>4.086760318251222</v>
+        <v>1.572610727283543</v>
       </c>
       <c r="K21">
-        <v>-0.2304354376121681</v>
+        <v>-0.6271245719003913</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1.06218499483979</v>
+        <v>1.245515382727119</v>
       </c>
       <c r="C22">
-        <v>-0.8852389630105697</v>
+        <v>-1.405935329856292</v>
       </c>
       <c r="D22">
-        <v>-0.0558786353357319</v>
+        <v>-0.1450462909838476</v>
       </c>
       <c r="E22">
-        <v>-3.70716334433386</v>
+        <v>-0.327093643711883</v>
       </c>
       <c r="F22">
-        <v>4.594578303184172</v>
+        <v>-0.7038767280084279</v>
       </c>
       <c r="G22">
-        <v>0.8144047504659724</v>
+        <v>-1.344281323636237</v>
       </c>
       <c r="H22">
-        <v>-0.4699199680661165</v>
+        <v>1.588311502829465</v>
       </c>
       <c r="I22">
-        <v>4.029691742782072</v>
+        <v>-0.6079301781800791</v>
       </c>
       <c r="J22">
-        <v>-0.2815567415983687</v>
+        <v>-0.03765573088201046</v>
       </c>
       <c r="K22">
-        <v>-0.6884749412588014</v>
+        <v>-3.537149016162154</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1.340115292431498</v>
+        <v>-1.128830542788317</v>
       </c>
       <c r="C23">
-        <v>-0.353195832274076</v>
+        <v>-0.05996222033191878</v>
       </c>
       <c r="D23">
-        <v>-3.440436284661193</v>
+        <v>-0.4917759393816696</v>
       </c>
       <c r="E23">
-        <v>4.643106980273811</v>
+        <v>-0.7501737727385163</v>
       </c>
       <c r="F23">
-        <v>0.7820040214703584</v>
+        <v>-1.377167344770108</v>
       </c>
       <c r="G23">
-        <v>-0.4192578927116719</v>
+        <v>1.527021519587886</v>
       </c>
       <c r="H23">
-        <v>4.075771321973281</v>
+        <v>-0.6629477747746789</v>
       </c>
       <c r="I23">
-        <v>-0.2560267305039844</v>
+        <v>-0.08886869937416542</v>
       </c>
       <c r="J23">
-        <v>-0.6552992021731622</v>
+        <v>-3.590848020727035</v>
       </c>
       <c r="K23">
-        <v>0.1039294925726918</v>
+        <v>4.73174398412219</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.05068199948299379</v>
+        <v>-0.3928034934777593</v>
       </c>
       <c r="C24">
-        <v>-3.231842090227025</v>
+        <v>-0.4962558842348227</v>
       </c>
       <c r="D24">
-        <v>4.599304726625893</v>
+        <v>-0.5804258470529343</v>
       </c>
       <c r="E24">
-        <v>0.8602096247968869</v>
+        <v>-1.32377441104606</v>
       </c>
       <c r="F24">
-        <v>-0.3248604380118332</v>
+        <v>1.583801280738911</v>
       </c>
       <c r="G24">
-        <v>4.132638447728763</v>
+        <v>-0.5852614797898008</v>
       </c>
       <c r="H24">
-        <v>-0.1886245657752045</v>
+        <v>-0.01835906658283759</v>
       </c>
       <c r="I24">
-        <v>-0.5822688371598701</v>
+        <v>-3.522032409165165</v>
       </c>
       <c r="J24">
-        <v>0.1720074739919267</v>
+        <v>4.802442885694729</v>
       </c>
       <c r="K24">
-        <v>-1.600325323120769</v>
+        <v>0.9745725076702143</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-3.377437691350778</v>
+        <v>-0.674412134896977</v>
       </c>
       <c r="C25">
-        <v>4.529096781379431</v>
+        <v>-0.7713220802274977</v>
       </c>
       <c r="D25">
-        <v>0.9789225614280446</v>
+        <v>-1.377081969419903</v>
       </c>
       <c r="E25">
-        <v>-0.2924999983369396</v>
+        <v>1.48947514958989</v>
       </c>
       <c r="F25">
-        <v>4.142616210569781</v>
+        <v>-0.6979759608654967</v>
       </c>
       <c r="G25">
-        <v>-0.1468258169145158</v>
+        <v>-0.1162396700376596</v>
       </c>
       <c r="H25">
-        <v>-0.5455501989603571</v>
+        <v>-3.620323573340306</v>
       </c>
       <c r="I25">
-        <v>0.2017583108656847</v>
+        <v>4.701021614200651</v>
       </c>
       <c r="J25">
-        <v>-1.566681958130874</v>
+        <v>0.8741631258236896</v>
       </c>
       <c r="K25">
-        <v>2.139513935359049</v>
+        <v>-0.4002756555116376</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>4.801485318762561</v>
+        <v>-1.033050668587761</v>
       </c>
       <c r="C26">
-        <v>0.913267839525427</v>
+        <v>-1.463907318848298</v>
       </c>
       <c r="D26">
-        <v>-0.3319556201640653</v>
+        <v>1.527247493997855</v>
       </c>
       <c r="E26">
-        <v>4.183318683871708</v>
+        <v>-0.7240372057268971</v>
       </c>
       <c r="F26">
-        <v>-0.1443451787808422</v>
+        <v>-0.1484391818639789</v>
       </c>
       <c r="G26">
-        <v>-0.5496348297789975</v>
+        <v>-3.639473091232869</v>
       </c>
       <c r="H26">
-        <v>0.2104665134444246</v>
+        <v>4.679678998352587</v>
       </c>
       <c r="I26">
-        <v>-1.561198728680113</v>
+        <v>0.8510375217258733</v>
       </c>
       <c r="J26">
-        <v>2.142823683514327</v>
+        <v>-0.4225685623909931</v>
       </c>
       <c r="K26">
-        <v>0.7899716644520379</v>
+        <v>4.086675644068895</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.3717561422703723</v>
+        <v>-1.864229751640736</v>
       </c>
       <c r="C27">
-        <v>-0.8791019322052089</v>
+        <v>1.314156154900326</v>
       </c>
       <c r="D27">
-        <v>4.723422806035984</v>
+        <v>-0.6284089554023509</v>
       </c>
       <c r="E27">
-        <v>-0.2434644514457658</v>
+        <v>-0.2076133956976113</v>
       </c>
       <c r="F27">
-        <v>-0.7089467587897555</v>
+        <v>-3.727555113241575</v>
       </c>
       <c r="G27">
-        <v>0.2580654574225746</v>
+        <v>4.642354521515177</v>
       </c>
       <c r="H27">
-        <v>-1.577742318730656</v>
+        <v>0.80442268604387</v>
       </c>
       <c r="I27">
-        <v>2.092202407356854</v>
+        <v>-0.4796371378601435</v>
       </c>
       <c r="J27">
-        <v>0.7711425963514449</v>
+        <v>4.035554340082694</v>
       </c>
       <c r="K27">
-        <v>1.026220945753324</v>
+        <v>-0.280824737328798</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1.317909765080107</v>
+        <v>0.8592798254793981</v>
       </c>
       <c r="C28">
-        <v>3.797168329633632</v>
+        <v>-0.925726152340695</v>
       </c>
       <c r="D28">
-        <v>-0.4269883030396099</v>
+        <v>0.0591136639750558</v>
       </c>
       <c r="E28">
-        <v>-0.3270824085490708</v>
+        <v>-3.679026436151936</v>
       </c>
       <c r="F28">
-        <v>0.2092499475065616</v>
+        <v>4.609953792519563</v>
       </c>
       <c r="G28">
-        <v>-1.610904003810268</v>
+        <v>0.8550847613983146</v>
       </c>
       <c r="H28">
-        <v>2.171877149624135</v>
+        <v>-0.4335575586689343</v>
       </c>
       <c r="I28">
-        <v>0.8014493027578454</v>
+        <v>4.061084351177078</v>
       </c>
       <c r="J28">
-        <v>1.044988844403852</v>
+        <v>-0.2476489982431588</v>
       </c>
       <c r="K28">
-        <v>-0.08570940516299164</v>
+        <v>-0.6540801116625203</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>4.868353134686993</v>
+        <v>-0.6232123195496128</v>
       </c>
       <c r="C29">
-        <v>-0.5057144731676827</v>
+        <v>0.2677078584092234</v>
       </c>
       <c r="D29">
-        <v>-0.6382104669498487</v>
+        <v>-3.722828689799855</v>
       </c>
       <c r="E29">
-        <v>0.3608051673070891</v>
+        <v>4.688159395846091</v>
       </c>
       <c r="F29">
-        <v>-1.587973328183784</v>
+        <v>0.9494822160981533</v>
       </c>
       <c r="G29">
-        <v>2.104050342715349</v>
+        <v>-0.3766904329134515</v>
       </c>
       <c r="H29">
-        <v>0.8131736491205633</v>
+        <v>4.128486515905858</v>
       </c>
       <c r="I29">
-        <v>1.051925846892968</v>
+        <v>-0.1746186332298667</v>
       </c>
       <c r="J29">
-        <v>-0.1020868192923516</v>
+        <v>-0.5860021302432854</v>
       </c>
       <c r="K29">
-        <v>1.631323344741358</v>
+        <v>0.1698667462952008</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1.161480604400402</v>
+        <v>0.1221122572854707</v>
       </c>
       <c r="C30">
-        <v>0.2507779444996481</v>
+        <v>-3.793036635046317</v>
       </c>
       <c r="D30">
-        <v>-0.5697470420513719</v>
+        <v>4.806872332477249</v>
       </c>
       <c r="E30">
-        <v>-1.516687622035615</v>
+        <v>0.9818426557730469</v>
       </c>
       <c r="F30">
-        <v>2.3589959397342</v>
+        <v>-0.3667126700724347</v>
       </c>
       <c r="G30">
-        <v>0.6652987897018862</v>
+        <v>4.170285264766546</v>
       </c>
       <c r="H30">
-        <v>1.009361028138957</v>
+        <v>-0.1378999950303537</v>
       </c>
       <c r="I30">
-        <v>-0.05633312782496203</v>
+        <v>-0.5562512933695274</v>
       </c>
       <c r="J30">
-        <v>1.60647940076914</v>
+        <v>0.2035101112850958</v>
       </c>
       <c r="K30">
-        <v>1.777570978320599</v>
+        <v>-1.564537347162243</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.6228858727657893</v>
+        <v>-3.520648097663186</v>
       </c>
       <c r="C31">
-        <v>0.4094712395283026</v>
+        <v>4.741217610574632</v>
       </c>
       <c r="D31">
-        <v>-1.394739097106807</v>
+        <v>0.9423870339459213</v>
       </c>
       <c r="E31">
-        <v>2.215146711838581</v>
+        <v>-0.3260101967705079</v>
       </c>
       <c r="F31">
-        <v>0.91640298512986</v>
+        <v>4.17276590290022</v>
       </c>
       <c r="G31">
-        <v>1.188024152733261</v>
+        <v>-0.1419846258489941</v>
       </c>
       <c r="H31">
-        <v>0.01952723792658473</v>
+        <v>-0.5475430907907874</v>
       </c>
       <c r="I31">
-        <v>1.748443717015282</v>
+        <v>0.2089933407358576</v>
       </c>
       <c r="J31">
-        <v>1.92733335770093</v>
+        <v>-1.561227599006965</v>
       </c>
       <c r="K31">
-        <v>1.893240954502724</v>
+        <v>2.143253219881968</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.2696417855765004</v>
+        <v>3.456193628778832</v>
       </c>
       <c r="C32">
-        <v>-1.614289770673047</v>
+        <v>0.3952407219047776</v>
       </c>
       <c r="D32">
-        <v>2.347735810496459</v>
+        <v>0.2140939253937688</v>
       </c>
       <c r="E32">
-        <v>0.921189511792661</v>
+        <v>4.073646630235297</v>
       </c>
       <c r="F32">
-        <v>1.105398905390152</v>
+        <v>-0.3012965548597522</v>
       </c>
       <c r="G32">
-        <v>0.02979362249283102</v>
+        <v>-0.4999441468126374</v>
       </c>
       <c r="H32">
-        <v>1.752413480389771</v>
+        <v>0.1924497506853143</v>
       </c>
       <c r="I32">
-        <v>1.895710647137968</v>
+        <v>-1.611848875164438</v>
       </c>
       <c r="J32">
-        <v>1.880529444923089</v>
+        <v>2.124424151781375</v>
       </c>
       <c r="K32">
-        <v>0.8280725750199738</v>
+        <v>0.7682476134833122</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.13114668368188</v>
+        <v>2.592252419190093</v>
       </c>
       <c r="C33">
-        <v>1.742666631567946</v>
+        <v>-0.712160551008583</v>
       </c>
       <c r="D33">
-        <v>0.5711375823114974</v>
+        <v>3.890122778641453</v>
       </c>
       <c r="E33">
-        <v>1.482408709799302</v>
+        <v>0.08056779538093262</v>
       </c>
       <c r="F33">
-        <v>-0.03207898350142768</v>
+        <v>-0.5487596567286505</v>
       </c>
       <c r="G33">
-        <v>1.599008421811034</v>
+        <v>0.1592880656057023</v>
       </c>
       <c r="H33">
-        <v>1.962174432224697</v>
+        <v>-1.532174132897157</v>
       </c>
       <c r="I33">
-        <v>1.882496678171399</v>
+        <v>2.154730858187776</v>
       </c>
       <c r="J33">
-        <v>0.7708382429261704</v>
+        <v>0.7870155121338394</v>
       </c>
       <c r="K33">
-        <v>1.964522524714165</v>
+        <v>1.055176324114394</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>1.827023400069947</v>
+        <v>0.3590242540447779</v>
       </c>
       <c r="C34">
-        <v>0.4888028508193502</v>
+        <v>3.81139660851338</v>
       </c>
       <c r="D34">
-        <v>1.471596344594558</v>
+        <v>-0.2305602630198453</v>
       </c>
       <c r="E34">
-        <v>0.007347806326601258</v>
+        <v>-0.397204436928123</v>
       </c>
       <c r="F34">
-        <v>1.588860911059396</v>
+        <v>0.1822187412321866</v>
       </c>
       <c r="G34">
-        <v>1.947337590876925</v>
+        <v>-1.600000939805943</v>
       </c>
       <c r="H34">
-        <v>1.89204969391759</v>
+        <v>2.166455204550494</v>
       </c>
       <c r="I34">
-        <v>0.7728960159151987</v>
+        <v>0.7939525146229559</v>
       </c>
       <c r="J34">
-        <v>1.958518439087574</v>
+        <v>1.038798909985034</v>
       </c>
       <c r="K34">
-        <v>1.295963201187878</v>
+        <v>-0.09098577230467975</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.06190938385428302</v>
+        <v>5.478591686081465</v>
       </c>
       <c r="C35">
-        <v>2.26017545783639</v>
+        <v>0.6584281484296515</v>
       </c>
       <c r="D35">
-        <v>-0.2558836427411291</v>
+        <v>-1.327756646286584</v>
       </c>
       <c r="E35">
-        <v>1.246425756096891</v>
+        <v>0.253504447380355</v>
       </c>
       <c r="F35">
-        <v>2.066184569109413</v>
+        <v>-1.345055342787091</v>
       </c>
       <c r="G35">
-        <v>1.859708481389941</v>
+        <v>2.018580345131817</v>
       </c>
       <c r="H35">
-        <v>0.6119859734886953</v>
+        <v>0.7513876958689444</v>
       </c>
       <c r="I35">
-        <v>1.910929136767185</v>
+        <v>1.084552601452424</v>
       </c>
       <c r="J35">
-        <v>1.255730557254227</v>
-      </c>
-      <c r="K35">
-        <v>0.9072349556365198</v>
+        <v>-0.1158297162768972</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>2.750952690361402</v>
+        <v>-0.2152356688357859</v>
       </c>
       <c r="C36">
-        <v>-0.5685323890927088</v>
+        <v>-0.3485383647069095</v>
       </c>
       <c r="D36">
-        <v>1.099336473843246</v>
+        <v>0.3754529723091635</v>
       </c>
       <c r="E36">
-        <v>2.109713815817977</v>
+        <v>-1.488904570682711</v>
       </c>
       <c r="F36">
-        <v>1.76264761573322</v>
+        <v>2.269684540559791</v>
       </c>
       <c r="G36">
-        <v>0.5186442976695476</v>
+        <v>0.9300508204632491</v>
       </c>
       <c r="H36">
-        <v>1.861806893584042</v>
+        <v>1.160412967203971</v>
       </c>
       <c r="I36">
-        <v>1.182766877946806</v>
-      </c>
-      <c r="J36">
-        <v>0.8320577075686965</v>
-      </c>
-      <c r="K36">
-        <v>0.7243956030543357</v>
+        <v>0.02613459996924417</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.7320287013142677</v>
+        <v>-0.4883678186587117</v>
       </c>
       <c r="C37">
-        <v>1.522302341005567</v>
+        <v>0.1559022987429232</v>
       </c>
       <c r="D37">
-        <v>1.467338125109618</v>
+        <v>-1.356315472024834</v>
       </c>
       <c r="E37">
-        <v>1.793638825175652</v>
+        <v>2.274471067222591</v>
       </c>
       <c r="F37">
-        <v>0.677999698236624</v>
+        <v>0.8474255731201394</v>
       </c>
       <c r="G37">
-        <v>1.741859006123216</v>
+        <v>1.170679351770217</v>
       </c>
       <c r="H37">
-        <v>1.118463222389436</v>
-      </c>
-      <c r="I37">
-        <v>0.8458034752539987</v>
-      </c>
-      <c r="J37">
-        <v>0.6898869152123258</v>
-      </c>
-      <c r="K37">
-        <v>0.473162559883601</v>
+        <v>0.03010436334373401</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.9795770604465</v>
+        <v>1.63904538573409</v>
       </c>
       <c r="C38">
-        <v>1.392536339603099</v>
+        <v>-1.961384650953345</v>
       </c>
       <c r="D38">
-        <v>1.481510914913067</v>
+        <v>1.924419137741428</v>
       </c>
       <c r="E38">
-        <v>0.5495882858316863</v>
+        <v>1.22443537752929</v>
       </c>
       <c r="F38">
-        <v>1.646265717678995</v>
+        <v>1.108806745775958</v>
       </c>
       <c r="G38">
-        <v>0.9624354823172134</v>
-      </c>
-      <c r="H38">
-        <v>0.6946493953545967</v>
-      </c>
-      <c r="I38">
-        <v>0.5552724956881216</v>
-      </c>
-      <c r="J38">
-        <v>0.3325484856772042</v>
-      </c>
-      <c r="K38">
-        <v>0.4721920549197476</v>
+        <v>-0.1233006952350033</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1.30090756340108</v>
+        <v>-1.877027882451345</v>
       </c>
       <c r="C39">
-        <v>1.963500078556037</v>
+        <v>1.842084406249281</v>
       </c>
       <c r="D39">
-        <v>0.4445961937514334</v>
+        <v>1.213623012324546</v>
       </c>
       <c r="E39">
-        <v>1.596344060894952</v>
+        <v>1.148233535603987</v>
       </c>
       <c r="F39">
-        <v>1.02220498890233</v>
-      </c>
-      <c r="G39">
-        <v>0.7092913393505274</v>
-      </c>
-      <c r="H39">
-        <v>0.5601932978503645</v>
-      </c>
-      <c r="I39">
-        <v>0.3499962282384746</v>
-      </c>
-      <c r="J39">
-        <v>0.4879072232831797</v>
+        <v>-0.1334482059866411</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>2.012737994557474</v>
+        <v>1.415190939284213</v>
       </c>
       <c r="C40">
-        <v>0.7403123565715917</v>
+        <v>2.002202125566377</v>
       </c>
       <c r="D40">
-        <v>1.433818452601332</v>
+        <v>0.8850020865362569</v>
       </c>
       <c r="E40">
-        <v>0.9497534119557898</v>
-      </c>
-      <c r="F40">
-        <v>0.7298655388265476</v>
-      </c>
-      <c r="G40">
-        <v>0.5258654170934298</v>
-      </c>
-      <c r="H40">
-        <v>0.3090287986856384</v>
-      </c>
-      <c r="I40">
-        <v>0.4635204163707518</v>
+        <v>-0.4758833609491462</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.8535918672211444</v>
+        <v>2.492979358091389</v>
       </c>
       <c r="C41">
-        <v>1.782613822028589</v>
+        <v>0.5723533401846772</v>
       </c>
       <c r="D41">
-        <v>0.7889205787030562</v>
-      </c>
-      <c r="E41">
-        <v>0.6461210271256811</v>
-      </c>
-      <c r="F41">
-        <v>0.5323553410679266</v>
-      </c>
-      <c r="G41">
-        <v>0.2768565178553412</v>
-      </c>
-      <c r="H41">
-        <v>0.4210073694104794</v>
+        <v>-0.6229726432027912</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.972402569862437</v>
+        <v>1.872914430591654</v>
       </c>
       <c r="C42">
-        <v>0.8237969262448452</v>
-      </c>
-      <c r="D42">
-        <v>0.4993394432980468</v>
-      </c>
-      <c r="E42">
-        <v>0.4591344678357677</v>
-      </c>
-      <c r="F42">
-        <v>0.2243478747645702</v>
-      </c>
-      <c r="G42">
-        <v>0.3483362424206175</v>
+        <v>-0.2000067760404705</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.796001625707733</v>
-      </c>
-      <c r="C43">
-        <v>0.9151352642427935</v>
-      </c>
-      <c r="D43">
-        <v>0.3687495555490187</v>
-      </c>
-      <c r="E43">
-        <v>0.1821182294781293</v>
-      </c>
-      <c r="F43">
-        <v>0.3937388773370095</v>
+        <v>0.2572679434004626</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>1.082826669985442</v>
-      </c>
-      <c r="C44">
-        <v>0.3935261511656301</v>
-      </c>
-      <c r="D44">
-        <v>0.06540634303695037</v>
-      </c>
-      <c r="E44">
-        <v>0.3242309254185909</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.573129683809814</v>
-      </c>
-      <c r="C45">
-        <v>0.1945252858301101</v>
-      </c>
-      <c r="D45">
-        <v>0.2603721808367071</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.1824667929082922</v>
-      </c>
-      <c r="C46">
-        <v>0.4481552108942597</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.3345343741504182</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -625,34 +625,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-5.671486825688698</v>
+        <v>0.7506771090147928</v>
       </c>
       <c r="C7">
-        <v>0.8694854618587151</v>
+        <v>-0.06972810661797335</v>
       </c>
       <c r="D7">
-        <v>2.842640475309816</v>
+        <v>-0.2677341648418452</v>
       </c>
       <c r="E7">
-        <v>-5.853590775736644</v>
+        <v>0.5335118749195863</v>
       </c>
       <c r="F7">
-        <v>0.7091617359126462</v>
+        <v>1.1266042399038</v>
       </c>
       <c r="G7">
-        <v>0.9990098985190516</v>
+        <v>1.391484227669427</v>
       </c>
       <c r="H7">
-        <v>-1.570450117525508</v>
+        <v>1.241966776223026</v>
       </c>
       <c r="I7">
-        <v>1.677176506711137</v>
+        <v>-0.9742010129248626</v>
       </c>
       <c r="J7">
-        <v>1.413479165989774</v>
+        <v>-0.8175003999631474</v>
       </c>
       <c r="K7">
-        <v>-1.197032425163824</v>
+        <v>-0.4277340886059712</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.81678218015325</v>
+        <v>-0.2935924599984106</v>
       </c>
       <c r="C8">
-        <v>-5.388661758716726</v>
+        <v>0.9984408919395052</v>
       </c>
       <c r="D8">
-        <v>0.962884137306376</v>
+        <v>1.38032664129753</v>
       </c>
       <c r="E8">
-        <v>1.254075320198131</v>
+        <v>1.646549649348506</v>
       </c>
       <c r="F8">
-        <v>-1.29372279837953</v>
+        <v>1.518694095369004</v>
       </c>
       <c r="G8">
-        <v>1.94830689603405</v>
+        <v>-0.7030706236019501</v>
       </c>
       <c r="H8">
-        <v>1.683787630665838</v>
+        <v>-0.5471919352870833</v>
       </c>
       <c r="I8">
-        <v>-0.9259396907858677</v>
+        <v>-0.156641354228015</v>
       </c>
       <c r="J8">
-        <v>1.334980598463436</v>
+        <v>-0.04047735899922111</v>
       </c>
       <c r="K8">
-        <v>2.689064788670529</v>
+        <v>0.1284384952458245</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.4863150012015967</v>
+        <v>-0.06887249721044264</v>
       </c>
       <c r="C9">
-        <v>0.6874441918362473</v>
+        <v>1.079918520986622</v>
       </c>
       <c r="D9">
-        <v>-0.844069681568326</v>
+        <v>1.968347212180208</v>
       </c>
       <c r="E9">
-        <v>1.85504818986428</v>
+        <v>-0.79632932977172</v>
       </c>
       <c r="F9">
-        <v>1.591112250932684</v>
+        <v>-0.6398673150202372</v>
       </c>
       <c r="G9">
-        <v>-0.9135596158006002</v>
+        <v>-0.1442612792427475</v>
       </c>
       <c r="H9">
-        <v>1.308932161580292</v>
+        <v>-0.06652579588236596</v>
       </c>
       <c r="I9">
-        <v>2.656716568347222</v>
+        <v>0.09609027492251832</v>
       </c>
       <c r="J9">
-        <v>-1.332075006104203</v>
+        <v>0.03626357674007064</v>
       </c>
       <c r="K9">
-        <v>-1.780936597262898</v>
+        <v>0.01076407958725711</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.7959303030262241</v>
+        <v>2.01648659072231</v>
       </c>
       <c r="C10">
-        <v>1.894848179199903</v>
+        <v>-0.7565293404360973</v>
       </c>
       <c r="D10">
-        <v>1.474136486493237</v>
+        <v>-0.756843079459684</v>
       </c>
       <c r="E10">
-        <v>-0.97214789066357</v>
+        <v>-0.2028495541057173</v>
       </c>
       <c r="F10">
-        <v>1.262963085780092</v>
+        <v>-0.112494871682565</v>
       </c>
       <c r="G10">
-        <v>2.593688932206153</v>
+        <v>0.03306263878144944</v>
       </c>
       <c r="H10">
-        <v>-1.391625964612836</v>
+        <v>-0.02328738176856249</v>
       </c>
       <c r="I10">
-        <v>-1.838122126165179</v>
+        <v>-0.0464214493150229</v>
       </c>
       <c r="J10">
-        <v>0.3213124992367958</v>
+        <v>-0.04913256965372248</v>
       </c>
       <c r="K10">
-        <v>-3.123224535438796</v>
+        <v>0.1282965472238247</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1.9391746218512</v>
+        <v>-0.2918049441017214</v>
       </c>
       <c r="C11">
-        <v>-0.8046269368836088</v>
+        <v>-0.03532860032575602</v>
       </c>
       <c r="D11">
-        <v>1.056042526974951</v>
+        <v>-0.3194154304877062</v>
       </c>
       <c r="E11">
-        <v>2.581693329272807</v>
+        <v>0.02106703584810282</v>
       </c>
       <c r="F11">
-        <v>-1.397195290779016</v>
+        <v>-0.02885670793474238</v>
       </c>
       <c r="G11">
-        <v>-1.885728842952809</v>
+        <v>-0.09402816610265324</v>
       </c>
       <c r="H11">
-        <v>0.2874730210481778</v>
+        <v>-0.08297204784234052</v>
       </c>
       <c r="I11">
-        <v>-3.153434361362954</v>
+        <v>0.09808672129966639</v>
       </c>
       <c r="J11">
-        <v>4.378035005625402</v>
+        <v>-0.08781000903778613</v>
       </c>
       <c r="K11">
-        <v>0.8319721963387258</v>
+        <v>-0.1447602666257092</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.204174184655598</v>
+        <v>-0.17128377280706</v>
       </c>
       <c r="C12">
-        <v>2.381507367384438</v>
+        <v>-0.1791189260402663</v>
       </c>
       <c r="D12">
-        <v>-1.341373701101798</v>
+        <v>0.02696488174247569</v>
       </c>
       <c r="E12">
-        <v>-1.844809138656271</v>
+        <v>-0.05310846180611506</v>
       </c>
       <c r="F12">
-        <v>0.2801164058616012</v>
+        <v>-0.09032866302891712</v>
       </c>
       <c r="G12">
-        <v>-3.14116092476767</v>
+        <v>0.11036015789495</v>
       </c>
       <c r="H12">
-        <v>4.393645090379152</v>
+        <v>-0.07219992428403693</v>
       </c>
       <c r="I12">
-        <v>0.8423505992749656</v>
+        <v>-0.1343818636894694</v>
       </c>
       <c r="J12">
-        <v>-0.8296938851082075</v>
+        <v>-0.1328827219433978</v>
       </c>
       <c r="K12">
-        <v>-1.203545886427776</v>
+        <v>-0.3899333315928718</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.554052314195068</v>
+        <v>0.8142862686492058</v>
       </c>
       <c r="C13">
-        <v>-1.829008546279687</v>
+        <v>-0.03730786942953168</v>
       </c>
       <c r="D13">
-        <v>-0.05637063819314239</v>
+        <v>-0.4268157070836607</v>
       </c>
       <c r="E13">
-        <v>-3.22289441056412</v>
+        <v>0.02862667209850001</v>
       </c>
       <c r="F13">
-        <v>4.298201732951103</v>
+        <v>-0.1676432817120854</v>
       </c>
       <c r="G13">
-        <v>0.7035028663199632</v>
+        <v>-0.2732295966444718</v>
       </c>
       <c r="H13">
-        <v>-0.9524112507980054</v>
+        <v>-0.2556000876331957</v>
       </c>
       <c r="I13">
-        <v>-1.323182243943861</v>
+        <v>-0.5095696891089572</v>
       </c>
       <c r="J13">
-        <v>1.673486669114662</v>
+        <v>-0.5445227672251081</v>
       </c>
       <c r="K13">
-        <v>0.6980735051658833</v>
+        <v>-0.5870180472211182</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5905425777570921</v>
+        <v>-0.9609876466476104</v>
       </c>
       <c r="C14">
-        <v>-3.253638464548714</v>
+        <v>-0.002117381886093395</v>
       </c>
       <c r="D14">
-        <v>4.606598065279174</v>
+        <v>0.140753050615986</v>
       </c>
       <c r="E14">
-        <v>0.7936854666478932</v>
+        <v>-0.1830469963165418</v>
       </c>
       <c r="F14">
-        <v>-0.8630704388845888</v>
+        <v>-0.1662592757197791</v>
       </c>
       <c r="G14">
-        <v>-1.187207941925589</v>
+        <v>-0.373595387090685</v>
       </c>
       <c r="H14">
-        <v>1.794443119378588</v>
+        <v>-0.4235663169611817</v>
       </c>
       <c r="I14">
-        <v>0.8140336776074497</v>
+        <v>-0.4710578747795517</v>
       </c>
       <c r="J14">
-        <v>-1.475525299799133</v>
+        <v>-0.4657018233425152</v>
       </c>
       <c r="K14">
-        <v>-1.831854317747091</v>
+        <v>0.1560119204909365</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>3.576281667491309</v>
+        <v>-0.8895633471718796</v>
       </c>
       <c r="C15">
-        <v>0.6504031613607434</v>
+        <v>-0.3263293016036916</v>
       </c>
       <c r="D15">
-        <v>-0.4950248887037911</v>
+        <v>0.2017862744610186</v>
       </c>
       <c r="E15">
-        <v>-1.149808641051175</v>
+        <v>-0.3361960862162706</v>
       </c>
       <c r="F15">
-        <v>1.843297869914595</v>
+        <v>-0.3747115664251746</v>
       </c>
       <c r="G15">
-        <v>0.9210081383601441</v>
+        <v>-0.3640834140268574</v>
       </c>
       <c r="H15">
-        <v>-1.389517787662581</v>
+        <v>-0.3796943112059631</v>
       </c>
       <c r="I15">
-        <v>-1.749953316676969</v>
+        <v>0.2379129215610576</v>
       </c>
       <c r="J15">
-        <v>2.487125804889406</v>
+        <v>0.07339857296878882</v>
       </c>
       <c r="K15">
-        <v>0.3002968346996191</v>
+        <v>-0.03823053039997504</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5053335455915529</v>
+        <v>1.202144708756363</v>
       </c>
       <c r="C16">
-        <v>-1.358292596715075</v>
+        <v>-0.5446800418801703</v>
       </c>
       <c r="D16">
-        <v>1.680403750658399</v>
+        <v>-0.5376056856813711</v>
       </c>
       <c r="E16">
-        <v>1.008808800605726</v>
+        <v>-0.2762827517812758</v>
       </c>
       <c r="F16">
-        <v>-1.396752856754145</v>
+        <v>-0.3869293802975272</v>
       </c>
       <c r="G16">
-        <v>-1.779863397284836</v>
+        <v>0.2080028409531911</v>
       </c>
       <c r="H16">
-        <v>2.485664645392344</v>
+        <v>0.07193741347172633</v>
       </c>
       <c r="I16">
-        <v>0.2941388319466436</v>
+        <v>-0.04438853315295055</v>
       </c>
       <c r="J16">
-        <v>-0.2558434956277781</v>
+        <v>-0.05287525362465451</v>
       </c>
       <c r="K16">
-        <v>-1.729361909483962</v>
+        <v>-0.05657900686701689</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.339849831222948</v>
+        <v>-0.8781596051168222</v>
       </c>
       <c r="C17">
-        <v>0.814118463344484</v>
+        <v>-0.4709730890425174</v>
       </c>
       <c r="D17">
-        <v>-1.267741768781739</v>
+        <v>-0.2579182923251215</v>
       </c>
       <c r="E17">
-        <v>-1.788141674011519</v>
+        <v>0.1997245642265078</v>
       </c>
       <c r="F17">
-        <v>2.451423199566685</v>
+        <v>0.03769596764606675</v>
       </c>
       <c r="G17">
-        <v>0.2983219022947881</v>
+        <v>-0.04020546280480608</v>
       </c>
       <c r="H17">
-        <v>-0.2585121595952037</v>
+        <v>-0.05554391759208011</v>
       </c>
       <c r="I17">
-        <v>-1.738180127138258</v>
+        <v>-0.0653972245213128</v>
       </c>
       <c r="J17">
-        <v>0.07074032370403782</v>
+        <v>-0.06248555921849319</v>
       </c>
       <c r="K17">
-        <v>0.9971770310456631</v>
+        <v>-0.1023118623025883</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.7782997505784299</v>
+        <v>0.2315237258781875</v>
       </c>
       <c r="C18">
-        <v>-1.8361640420078</v>
+        <v>0.1517021962302271</v>
       </c>
       <c r="D18">
-        <v>2.319833100786634</v>
+        <v>-0.09389413113398337</v>
       </c>
       <c r="E18">
-        <v>0.3023233898838172</v>
+        <v>-0.0362039752157769</v>
       </c>
       <c r="F18">
-        <v>-0.2827541059558693</v>
+        <v>-0.07978586395274567</v>
       </c>
       <c r="G18">
-        <v>-1.780231982177512</v>
+        <v>-0.1074490795605673</v>
       </c>
       <c r="H18">
-        <v>0.04027180373177264</v>
+        <v>-0.09295407919075838</v>
       </c>
       <c r="I18">
-        <v>0.9664229203335013</v>
+        <v>-0.1330659730147501</v>
       </c>
       <c r="J18">
-        <v>0.8888962851724813</v>
+        <v>-0.1362342446200386</v>
       </c>
       <c r="K18">
-        <v>-1.539425260464403</v>
+        <v>-0.1121388595027822</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.600836433812818</v>
+        <v>-0.8128907981078001</v>
       </c>
       <c r="C19">
-        <v>0.1946749838982902</v>
+        <v>-0.1438523812013039</v>
       </c>
       <c r="D19">
-        <v>-0.05462157107815235</v>
+        <v>0.1483466709249712</v>
       </c>
       <c r="E19">
-        <v>-1.789561264445737</v>
+        <v>-0.1167783618287919</v>
       </c>
       <c r="F19">
-        <v>0.03804391946756724</v>
+        <v>-0.09518196345496377</v>
       </c>
       <c r="G19">
-        <v>1.011594603348007</v>
+        <v>-0.08789429000024407</v>
       </c>
       <c r="H19">
-        <v>0.9171305911971613</v>
+        <v>-0.1079999385953586</v>
       </c>
       <c r="I19">
-        <v>-1.515591953024298</v>
+        <v>-0.08830555206267776</v>
       </c>
       <c r="J19">
-        <v>-0.04745025245454915</v>
+        <v>-0.0834374307719904</v>
       </c>
       <c r="K19">
-        <v>-0.3392991498005469</v>
+        <v>-0.09644485404226055</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3010031673752307</v>
+        <v>0.5039714093783543</v>
       </c>
       <c r="C20">
-        <v>-1.921509161222507</v>
+        <v>-0.2487262586055623</v>
       </c>
       <c r="D20">
-        <v>-0.0524756413422281</v>
+        <v>-0.1857015242647591</v>
       </c>
       <c r="E20">
-        <v>1.013352628534677</v>
+        <v>-0.08613626481357461</v>
       </c>
       <c r="F20">
-        <v>0.8794124191540724</v>
+        <v>-0.1457181106384475</v>
       </c>
       <c r="G20">
-        <v>-1.560316657544505</v>
+        <v>-0.1330302565828843</v>
       </c>
       <c r="H20">
-        <v>-0.081289583378227</v>
+        <v>-0.1172767616956683</v>
       </c>
       <c r="I20">
-        <v>-0.375211459337658</v>
+        <v>-0.1323571635793717</v>
       </c>
       <c r="J20">
-        <v>-0.7619718786798015</v>
+        <v>-0.1351774156790668</v>
       </c>
       <c r="K20">
-        <v>-1.37619022256277</v>
+        <v>-0.08192193240080969</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.5716849147553217</v>
+        <v>-0.7049107976778527</v>
       </c>
       <c r="C21">
-        <v>0.8108968630440299</v>
+        <v>-0.2885920303042216</v>
       </c>
       <c r="D21">
-        <v>1.086112535566929</v>
+        <v>0.06098200577440893</v>
       </c>
       <c r="E21">
-        <v>-1.550918251038055</v>
+        <v>-0.1236318500764348</v>
       </c>
       <c r="F21">
-        <v>-0.09430818270622077</v>
+        <v>-0.130295361023662</v>
       </c>
       <c r="G21">
-        <v>-0.3397706856137065</v>
+        <v>-0.09691638985542017</v>
       </c>
       <c r="H21">
-        <v>-0.7373590180257339</v>
+        <v>-0.1105645550249992</v>
       </c>
       <c r="I21">
-        <v>-1.358249744850787</v>
+        <v>-0.06398145468882688</v>
       </c>
       <c r="J21">
-        <v>1.572610727283543</v>
+        <v>-0.04192136911561595</v>
       </c>
       <c r="K21">
-        <v>-0.6271245719003913</v>
+        <v>-0.0181390161754349</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1.245515382727119</v>
+        <v>0.220384852934599</v>
       </c>
       <c r="C22">
-        <v>-1.405935329856292</v>
+        <v>0.02135107110532897</v>
       </c>
       <c r="D22">
-        <v>-0.1450462909838476</v>
+        <v>-0.1810334693012888</v>
       </c>
       <c r="E22">
-        <v>-0.327093643711883</v>
+        <v>-0.08423934795359667</v>
       </c>
       <c r="F22">
-        <v>-0.7038767280084279</v>
+        <v>-0.07708226500769322</v>
       </c>
       <c r="G22">
-        <v>-1.344281323636237</v>
+        <v>-0.05001303347427677</v>
       </c>
       <c r="H22">
-        <v>1.588311502829465</v>
+        <v>-0.02622059356969431</v>
       </c>
       <c r="I22">
-        <v>-0.6079301781800791</v>
+        <v>0.001055377544877278</v>
       </c>
       <c r="J22">
-        <v>-0.03765573088201046</v>
+        <v>-0.001727837279917654</v>
       </c>
       <c r="K22">
-        <v>-3.537149016162154</v>
+        <v>-0.02952093696976232</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1.128830542788317</v>
+        <v>0.2984558581733031</v>
       </c>
       <c r="C23">
-        <v>-0.05996222033191878</v>
+        <v>-0.09594939864936003</v>
       </c>
       <c r="D23">
-        <v>-0.4917759393816696</v>
+        <v>-0.2489216436233833</v>
       </c>
       <c r="E23">
-        <v>-0.7501737727385163</v>
+        <v>-0.1233793097377816</v>
       </c>
       <c r="F23">
-        <v>-1.377167344770108</v>
+        <v>-0.0828990546081475</v>
       </c>
       <c r="G23">
-        <v>1.527021519587886</v>
+        <v>-0.08751057681127272</v>
       </c>
       <c r="H23">
-        <v>-0.6629477747746789</v>
+        <v>-0.05396221904972254</v>
       </c>
       <c r="I23">
-        <v>-0.08886869937416542</v>
+        <v>-0.05294080577207261</v>
       </c>
       <c r="J23">
-        <v>-3.590848020727035</v>
+        <v>-0.08321994153464307</v>
       </c>
       <c r="K23">
-        <v>4.73174398412219</v>
+        <v>-0.08255298356519236</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.3928034934777593</v>
+        <v>-0.4287906717952005</v>
       </c>
       <c r="C24">
-        <v>-0.4962558842348227</v>
+        <v>-0.2534015884765364</v>
       </c>
       <c r="D24">
-        <v>-0.5804258470529343</v>
+        <v>0.0463686159478004</v>
       </c>
       <c r="E24">
-        <v>-1.32377441104606</v>
+        <v>-0.02950612088409921</v>
       </c>
       <c r="F24">
-        <v>1.583801280738911</v>
+        <v>-0.03073081566024793</v>
       </c>
       <c r="G24">
-        <v>-0.5852614797898008</v>
+        <v>0.02372407593515558</v>
       </c>
       <c r="H24">
-        <v>-0.01835906658283759</v>
+        <v>0.01756882701925522</v>
       </c>
       <c r="I24">
-        <v>-3.522032409165165</v>
+        <v>-0.01440432997277341</v>
       </c>
       <c r="J24">
-        <v>4.802442885694729</v>
+        <v>-0.01185408199265292</v>
       </c>
       <c r="K24">
-        <v>0.9745725076702143</v>
+        <v>-0.01218098625094233</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.674412134896977</v>
+        <v>-0.4315578391386907</v>
       </c>
       <c r="C25">
-        <v>-0.7713220802274977</v>
+        <v>-0.144527617226763</v>
       </c>
       <c r="D25">
-        <v>-1.377081969419903</v>
+        <v>-0.08281367925794281</v>
       </c>
       <c r="E25">
-        <v>1.48947514958989</v>
+        <v>-0.1250569468092689</v>
       </c>
       <c r="F25">
-        <v>-0.6979759608654967</v>
+        <v>-0.08899040514054035</v>
       </c>
       <c r="G25">
-        <v>-0.1162396700376596</v>
+        <v>-0.08031177643556675</v>
       </c>
       <c r="H25">
-        <v>-3.620323573340306</v>
+        <v>-0.112695494147914</v>
       </c>
       <c r="I25">
-        <v>4.701021614200651</v>
+        <v>-0.1132753534867312</v>
       </c>
       <c r="J25">
-        <v>0.8741631258236896</v>
+        <v>-0.1125903680974671</v>
       </c>
       <c r="K25">
-        <v>-0.4002756555116376</v>
+        <v>-0.1130923256249075</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1.033050668587761</v>
+        <v>-0.4062562055870261</v>
       </c>
       <c r="C26">
-        <v>-1.463907318848298</v>
+        <v>-0.1696390286863373</v>
       </c>
       <c r="D26">
-        <v>1.527247493997855</v>
+        <v>-0.08728460240130409</v>
       </c>
       <c r="E26">
-        <v>-0.7240372057268971</v>
+        <v>-0.1150516500019407</v>
       </c>
       <c r="F26">
-        <v>-0.1484391818639789</v>
+        <v>-0.1125112882618861</v>
       </c>
       <c r="G26">
-        <v>-3.639473091232869</v>
+        <v>-0.1318450120404774</v>
       </c>
       <c r="H26">
-        <v>4.679678998352587</v>
+        <v>-0.1346179693347949</v>
       </c>
       <c r="I26">
-        <v>0.8510375217258733</v>
+        <v>-0.1357159721952834</v>
       </c>
       <c r="J26">
-        <v>-0.4225685623909931</v>
+        <v>-0.135385232504263</v>
       </c>
       <c r="K26">
-        <v>4.086675644068895</v>
+        <v>0.1366388938084852</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1.864229751640736</v>
+        <v>-0.5699614614787754</v>
       </c>
       <c r="C27">
-        <v>1.314156154900326</v>
+        <v>-0.300375941498833</v>
       </c>
       <c r="D27">
-        <v>-0.6284089554023509</v>
+        <v>-0.01942339967739448</v>
       </c>
       <c r="E27">
-        <v>-0.2076133956976113</v>
+        <v>-0.1716855020955185</v>
       </c>
       <c r="F27">
-        <v>-3.727555113241575</v>
+        <v>-0.2199270340491832</v>
       </c>
       <c r="G27">
-        <v>4.642354521515177</v>
+        <v>-0.1719424461722058</v>
       </c>
       <c r="H27">
-        <v>0.80442268604387</v>
+        <v>-0.1823308078772867</v>
       </c>
       <c r="I27">
-        <v>-0.4796371378601435</v>
+        <v>-0.1924538079734134</v>
       </c>
       <c r="J27">
-        <v>4.035554340082694</v>
+        <v>0.08551758982228458</v>
       </c>
       <c r="K27">
-        <v>-0.280824737328798</v>
+        <v>0.08602116374953711</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.8592798254793981</v>
+        <v>-0.7552522709197611</v>
       </c>
       <c r="C28">
-        <v>-0.925726152340695</v>
+        <v>-0.3167405966157386</v>
       </c>
       <c r="D28">
-        <v>0.0591136639750558</v>
+        <v>0.09504155757714861</v>
       </c>
       <c r="E28">
-        <v>-3.679026436151936</v>
+        <v>-0.1713983569595442</v>
       </c>
       <c r="F28">
-        <v>4.609953792519563</v>
+        <v>-0.2043431751678197</v>
       </c>
       <c r="G28">
-        <v>0.8550847613983146</v>
+        <v>-0.1316687325228421</v>
       </c>
       <c r="H28">
-        <v>-0.4335575586689343</v>
+        <v>-0.1463742287822042</v>
       </c>
       <c r="I28">
-        <v>4.061084351177078</v>
+        <v>0.1110476009166688</v>
       </c>
       <c r="J28">
-        <v>-0.2476489982431588</v>
+        <v>0.1191969028351764</v>
       </c>
       <c r="K28">
-        <v>-0.6540801116625203</v>
+        <v>0.1202991436943276</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.6232123195496128</v>
+        <v>-0.01422676382465637</v>
       </c>
       <c r="C29">
-        <v>0.2677078584092234</v>
+        <v>0.3036357520113162</v>
       </c>
       <c r="D29">
-        <v>-3.722828689799855</v>
+        <v>-0.215200610607463</v>
       </c>
       <c r="E29">
-        <v>4.688159395846091</v>
+        <v>-0.1261375718412912</v>
       </c>
       <c r="F29">
-        <v>0.9494822160981533</v>
+        <v>-0.03727127782300332</v>
       </c>
       <c r="G29">
-        <v>-0.3766904329134515</v>
+        <v>-0.08950710302672138</v>
       </c>
       <c r="H29">
-        <v>4.128486515905858</v>
+        <v>0.1784497656454488</v>
       </c>
       <c r="I29">
-        <v>-0.1746186332298667</v>
+        <v>0.1922272678484684</v>
       </c>
       <c r="J29">
-        <v>-0.5860021302432854</v>
+        <v>0.1883771251135625</v>
       </c>
       <c r="K29">
-        <v>0.1698667462952008</v>
+        <v>0.1861196516908469</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1221122572854707</v>
+        <v>0.1580401508875635</v>
       </c>
       <c r="C30">
-        <v>-3.793036635046317</v>
+        <v>-0.2854085558539251</v>
       </c>
       <c r="D30">
-        <v>4.806872332477249</v>
+        <v>-0.007424635210133479</v>
       </c>
       <c r="E30">
-        <v>0.9818426557730469</v>
+        <v>-0.004910838148109775</v>
       </c>
       <c r="F30">
-        <v>-0.3667126700724347</v>
+        <v>-0.07952934018570457</v>
       </c>
       <c r="G30">
-        <v>4.170285264766546</v>
+        <v>0.2202485145061375</v>
       </c>
       <c r="H30">
-        <v>-0.1378999950303537</v>
+        <v>0.2289459060479815</v>
       </c>
       <c r="I30">
-        <v>-0.5562512933695274</v>
+        <v>0.2181279619873205</v>
       </c>
       <c r="J30">
-        <v>0.2035101112850958</v>
+        <v>0.2197630166807419</v>
       </c>
       <c r="K30">
-        <v>-1.564537347162243</v>
+        <v>-0.0221511182175782</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-3.520648097663186</v>
+        <v>-0.01302001847079493</v>
       </c>
       <c r="C31">
-        <v>4.741217610574632</v>
+        <v>-0.07307935711275104</v>
       </c>
       <c r="D31">
-        <v>0.9423870339459213</v>
+        <v>-0.04436645997523547</v>
       </c>
       <c r="E31">
-        <v>-0.3260101967705079</v>
+        <v>-0.03882686688377779</v>
       </c>
       <c r="F31">
-        <v>4.17276590290022</v>
+        <v>0.2227291526398111</v>
       </c>
       <c r="G31">
-        <v>-0.1419846258489941</v>
+        <v>0.2248612752293411</v>
       </c>
       <c r="H31">
-        <v>-0.5475430907907874</v>
+        <v>0.2268361645660604</v>
       </c>
       <c r="I31">
-        <v>0.2089933407358576</v>
+        <v>0.2252462461315037</v>
       </c>
       <c r="J31">
-        <v>-1.561227599006965</v>
+        <v>-0.01884137006229947</v>
       </c>
       <c r="K31">
-        <v>2.143253219881968</v>
+        <v>-0.01892821434577907</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>3.456193628778832</v>
+        <v>-1.35810333890855</v>
       </c>
       <c r="C32">
-        <v>0.3952407219047776</v>
+        <v>-0.5915127720163791</v>
       </c>
       <c r="D32">
-        <v>0.2140939253937688</v>
+        <v>0.5012772552804989</v>
       </c>
       <c r="E32">
-        <v>4.073646630235297</v>
+        <v>0.1236098799748874</v>
       </c>
       <c r="F32">
-        <v>-0.3012965548597522</v>
+        <v>0.06554934621858299</v>
       </c>
       <c r="G32">
-        <v>-0.4999441468126374</v>
+        <v>0.2744351085442104</v>
       </c>
       <c r="H32">
-        <v>0.1924497506853143</v>
+        <v>0.2087026560809604</v>
       </c>
       <c r="I32">
-        <v>-1.611848875164438</v>
+        <v>-0.06946264621977305</v>
       </c>
       <c r="J32">
-        <v>2.124424151781375</v>
+        <v>-0.03775728244637211</v>
       </c>
       <c r="K32">
-        <v>0.7682476134833122</v>
+        <v>-0.04085654018054063</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>2.592252419190093</v>
+        <v>1.605498925268936</v>
       </c>
       <c r="C33">
-        <v>-0.712160551008583</v>
+        <v>-0.4249772211218529</v>
       </c>
       <c r="D33">
-        <v>3.890122778641453</v>
+        <v>-0.05991397161895662</v>
       </c>
       <c r="E33">
-        <v>0.08056779538093262</v>
+        <v>0.4474136964592678</v>
       </c>
       <c r="F33">
-        <v>-0.5487596567286505</v>
+        <v>0.2256195986281974</v>
       </c>
       <c r="G33">
-        <v>0.1592880656057023</v>
+        <v>0.1755409710013484</v>
       </c>
       <c r="H33">
-        <v>-1.532174132897157</v>
+        <v>0.01021209604750761</v>
       </c>
       <c r="I33">
-        <v>2.154730858187776</v>
+        <v>-0.007450576039971568</v>
       </c>
       <c r="J33">
-        <v>0.7870155121338394</v>
+        <v>-0.02208864153001344</v>
       </c>
       <c r="K33">
-        <v>1.055176324114394</v>
+        <v>-0.01210569358444946</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.3590242540447779</v>
+        <v>0.646207583931508</v>
       </c>
       <c r="C34">
-        <v>3.81139660851338</v>
+        <v>-0.1386401417470294</v>
       </c>
       <c r="D34">
-        <v>-0.2305602630198453</v>
+        <v>0.1362856380584899</v>
       </c>
       <c r="E34">
-        <v>-0.397204436928123</v>
+        <v>0.3771748184287249</v>
       </c>
       <c r="F34">
-        <v>0.1822187412321866</v>
+        <v>0.1984716466278327</v>
       </c>
       <c r="G34">
-        <v>-1.600000939805943</v>
+        <v>-0.05761471086127767</v>
       </c>
       <c r="H34">
-        <v>2.166455204550494</v>
+        <v>0.00427377032274634</v>
       </c>
       <c r="I34">
-        <v>0.7939525146229559</v>
+        <v>-0.01515163904089689</v>
       </c>
       <c r="J34">
-        <v>1.038798909985034</v>
+        <v>-0.02848310771380946</v>
       </c>
       <c r="K34">
-        <v>-0.09098577230467975</v>
+        <v>0.1261590574260197</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>5.478591686081465</v>
+        <v>1.528554935821056</v>
       </c>
       <c r="C35">
-        <v>0.6584281484296515</v>
+        <v>1.025274049507987</v>
       </c>
       <c r="D35">
-        <v>-1.327756646286584</v>
+        <v>-0.5533773909297361</v>
       </c>
       <c r="E35">
-        <v>0.253504447380355</v>
+        <v>0.2697573527760011</v>
       </c>
       <c r="F35">
-        <v>-1.345055342787091</v>
+        <v>0.1973308861575735</v>
       </c>
       <c r="G35">
-        <v>2.018580345131817</v>
+        <v>-0.1436010890959308</v>
       </c>
       <c r="H35">
-        <v>0.7513876958689444</v>
+        <v>-0.05771645779490842</v>
       </c>
       <c r="I35">
-        <v>1.084552601452424</v>
+        <v>0.01727058375358015</v>
       </c>
       <c r="J35">
-        <v>-0.1158297162768972</v>
+        <v>0.1013151134538022</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.2152356688357859</v>
+        <v>0.1516102322425493</v>
       </c>
       <c r="C36">
-        <v>-0.3485383647069095</v>
+        <v>0.4258408906499384</v>
       </c>
       <c r="D36">
-        <v>0.3754529723091635</v>
+        <v>0.3917058777048096</v>
       </c>
       <c r="E36">
-        <v>-1.488904570682711</v>
+        <v>0.05348165826195372</v>
       </c>
       <c r="F36">
-        <v>2.269684540559791</v>
+        <v>0.107503106332043</v>
       </c>
       <c r="G36">
-        <v>0.9300508204632491</v>
+        <v>0.1209466667993963</v>
       </c>
       <c r="H36">
-        <v>1.160412967203971</v>
+        <v>0.0931309495051269</v>
       </c>
       <c r="I36">
-        <v>0.02613459996924417</v>
+        <v>0.2432794296999436</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.4883678186587117</v>
+        <v>0.2860114366981362</v>
       </c>
       <c r="C37">
-        <v>0.1559022987429232</v>
+        <v>0.1721552041385693</v>
       </c>
       <c r="D37">
-        <v>-1.356315472024834</v>
+        <v>0.1860707569198314</v>
       </c>
       <c r="E37">
-        <v>2.274471067222591</v>
+        <v>0.112289632994844</v>
       </c>
       <c r="F37">
-        <v>0.8474255731201394</v>
+        <v>0.03832141945628664</v>
       </c>
       <c r="G37">
-        <v>1.170679351770217</v>
+        <v>0.1033973340713732</v>
       </c>
       <c r="H37">
-        <v>0.03010436334373401</v>
+        <v>0.2472491930744334</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.63904538573409</v>
+        <v>1.655298291129736</v>
       </c>
       <c r="C38">
-        <v>-1.961384650953345</v>
+        <v>-0.4189984220086804</v>
       </c>
       <c r="D38">
-        <v>1.924419137741428</v>
+        <v>-0.2377622964863196</v>
       </c>
       <c r="E38">
-        <v>1.22443537752929</v>
+        <v>0.4153312238654372</v>
       </c>
       <c r="F38">
-        <v>1.108806745775958</v>
+        <v>0.04152472807711449</v>
       </c>
       <c r="G38">
-        <v>-0.1233006952350033</v>
+        <v>0.09384413449569612</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1.877027882451345</v>
+        <v>-0.3346416535066797</v>
       </c>
       <c r="C39">
-        <v>1.842084406249281</v>
+        <v>-0.3200970279784667</v>
       </c>
       <c r="D39">
-        <v>1.213623012324546</v>
+        <v>0.4045188586606931</v>
       </c>
       <c r="E39">
-        <v>1.148233535603987</v>
+        <v>0.08095151790514343</v>
       </c>
       <c r="F39">
-        <v>-0.1334482059866411</v>
+        <v>0.08369662374405834</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1.415190939284213</v>
+        <v>-0.746990494943534</v>
       </c>
       <c r="C40">
-        <v>2.002202125566377</v>
+        <v>1.193097971902525</v>
       </c>
       <c r="D40">
-        <v>0.8850020865362569</v>
+        <v>-0.1822799311625869</v>
       </c>
       <c r="E40">
-        <v>-0.4758833609491462</v>
+        <v>-0.2587385312184467</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>2.492979358091389</v>
+        <v>1.683875204427537</v>
       </c>
       <c r="C41">
-        <v>0.5723533401846772</v>
+        <v>-0.4949286775141665</v>
       </c>
       <c r="D41">
-        <v>-0.6229726432027912</v>
+        <v>-0.4058278134720918</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.872914430591654</v>
+        <v>0.8056324128928098</v>
       </c>
       <c r="C42">
-        <v>-0.2000067760404705</v>
+        <v>0.01713805369022897</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.2572679434004626</v>
+        <v>0.474412773131162</v>
       </c>
     </row>
     <row r="44" spans="1:11">

--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-5.671486825688698</v>
+      </c>
+      <c r="C2">
+        <v>0.8694854618587151</v>
+      </c>
+      <c r="D2">
+        <v>2.842640475309816</v>
+      </c>
+      <c r="E2">
+        <v>-5.853590775736644</v>
+      </c>
+      <c r="F2">
+        <v>0.7091617359126462</v>
+      </c>
+      <c r="G2">
+        <v>0.9990098985190516</v>
+      </c>
+      <c r="H2">
+        <v>-1.570450117525508</v>
+      </c>
+      <c r="I2">
+        <v>1.677176506711137</v>
+      </c>
+      <c r="J2">
+        <v>1.413479165989774</v>
+      </c>
+      <c r="K2">
+        <v>-1.197032425163824</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>2.81678218015325</v>
+      </c>
+      <c r="C3">
+        <v>-5.388661758716726</v>
+      </c>
+      <c r="D3">
+        <v>0.962884137306376</v>
+      </c>
+      <c r="E3">
+        <v>1.254075320198131</v>
+      </c>
+      <c r="F3">
+        <v>-1.29372279837953</v>
+      </c>
+      <c r="G3">
+        <v>1.94830689603405</v>
+      </c>
+      <c r="H3">
+        <v>1.683787630665838</v>
+      </c>
+      <c r="I3">
+        <v>-0.9259396907858677</v>
+      </c>
+      <c r="J3">
+        <v>1.334980598463436</v>
+      </c>
+      <c r="K3">
+        <v>2.689064788670529</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>-0.4863150012015967</v>
+      </c>
+      <c r="C4">
+        <v>0.6874441918362473</v>
+      </c>
+      <c r="D4">
+        <v>-0.844069681568326</v>
+      </c>
+      <c r="E4">
+        <v>1.85504818986428</v>
+      </c>
+      <c r="F4">
+        <v>1.591112250932684</v>
+      </c>
+      <c r="G4">
+        <v>-0.9135596158006002</v>
+      </c>
+      <c r="H4">
+        <v>1.308932161580292</v>
+      </c>
+      <c r="I4">
+        <v>2.656716568347222</v>
+      </c>
+      <c r="J4">
+        <v>-1.332075006104203</v>
+      </c>
+      <c r="K4">
+        <v>-1.780936597262898</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>-0.7959303030262241</v>
+      </c>
+      <c r="C5">
+        <v>1.894848179199903</v>
+      </c>
+      <c r="D5">
+        <v>1.474136486493237</v>
+      </c>
+      <c r="E5">
+        <v>-0.97214789066357</v>
+      </c>
+      <c r="F5">
+        <v>1.262963085780092</v>
+      </c>
+      <c r="G5">
+        <v>2.593688932206153</v>
+      </c>
+      <c r="H5">
+        <v>-1.391625964612836</v>
+      </c>
+      <c r="I5">
+        <v>-1.838122126165179</v>
+      </c>
+      <c r="J5">
+        <v>0.3213124992367958</v>
+      </c>
+      <c r="K5">
+        <v>-3.123224535438796</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>1.9391746218512</v>
+      </c>
+      <c r="C6">
+        <v>-0.8046269368836088</v>
+      </c>
+      <c r="D6">
+        <v>1.056042526974951</v>
+      </c>
+      <c r="E6">
+        <v>2.581693329272807</v>
+      </c>
+      <c r="F6">
+        <v>-1.397195290779016</v>
+      </c>
+      <c r="G6">
+        <v>-1.885728842952809</v>
+      </c>
+      <c r="H6">
+        <v>0.2874730210481778</v>
+      </c>
+      <c r="I6">
+        <v>-3.153434361362954</v>
+      </c>
+      <c r="J6">
+        <v>4.378035005625402</v>
+      </c>
+      <c r="K6">
+        <v>0.8319721963387258</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.7506771090147928</v>
+        <v>1.204174184655598</v>
       </c>
       <c r="C7">
-        <v>-0.06972810661797335</v>
+        <v>2.381507367384438</v>
       </c>
       <c r="D7">
-        <v>-0.2677341648418452</v>
+        <v>-1.341373701101798</v>
       </c>
       <c r="E7">
-        <v>0.5335118749195863</v>
+        <v>-1.844809138656271</v>
       </c>
       <c r="F7">
-        <v>1.1266042399038</v>
+        <v>0.2801164058616012</v>
       </c>
       <c r="G7">
-        <v>1.391484227669427</v>
+        <v>-3.14116092476767</v>
       </c>
       <c r="H7">
-        <v>1.241966776223026</v>
+        <v>4.393645090379152</v>
       </c>
       <c r="I7">
-        <v>-0.9742010129248626</v>
+        <v>0.8423505992749656</v>
       </c>
       <c r="J7">
-        <v>-0.8175003999631474</v>
+        <v>-0.8296938851082075</v>
       </c>
       <c r="K7">
-        <v>-0.4277340886059712</v>
+        <v>-1.203545886427776</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2935924599984106</v>
+        <v>-0.554052314195068</v>
       </c>
       <c r="C8">
-        <v>0.9984408919395052</v>
+        <v>-1.829008546279687</v>
       </c>
       <c r="D8">
-        <v>1.38032664129753</v>
+        <v>-0.05637063819314239</v>
       </c>
       <c r="E8">
-        <v>1.646549649348506</v>
+        <v>-3.22289441056412</v>
       </c>
       <c r="F8">
-        <v>1.518694095369004</v>
+        <v>4.298201732951103</v>
       </c>
       <c r="G8">
-        <v>-0.7030706236019501</v>
+        <v>0.7035028663199632</v>
       </c>
       <c r="H8">
-        <v>-0.5471919352870833</v>
+        <v>-0.9524112507980054</v>
       </c>
       <c r="I8">
-        <v>-0.156641354228015</v>
+        <v>-1.323182243943861</v>
       </c>
       <c r="J8">
-        <v>-0.04047735899922111</v>
+        <v>1.673486669114662</v>
       </c>
       <c r="K8">
-        <v>0.1284384952458245</v>
+        <v>0.6980735051658833</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.06887249721044264</v>
+        <v>-0.5905425777570921</v>
       </c>
       <c r="C9">
-        <v>1.079918520986622</v>
+        <v>-3.253638464548714</v>
       </c>
       <c r="D9">
-        <v>1.968347212180208</v>
+        <v>4.606598065279174</v>
       </c>
       <c r="E9">
-        <v>-0.79632932977172</v>
+        <v>0.7936854666478932</v>
       </c>
       <c r="F9">
-        <v>-0.6398673150202372</v>
+        <v>-0.8630704388845888</v>
       </c>
       <c r="G9">
-        <v>-0.1442612792427475</v>
+        <v>-1.187207941925589</v>
       </c>
       <c r="H9">
-        <v>-0.06652579588236596</v>
+        <v>1.794443119378588</v>
       </c>
       <c r="I9">
-        <v>0.09609027492251832</v>
+        <v>0.8140336776074497</v>
       </c>
       <c r="J9">
-        <v>0.03626357674007064</v>
+        <v>-1.475525299799133</v>
       </c>
       <c r="K9">
-        <v>0.01076407958725711</v>
+        <v>-1.831854317747091</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2.01648659072231</v>
+        <v>3.576281667491309</v>
       </c>
       <c r="C10">
-        <v>-0.7565293404360973</v>
+        <v>0.6504031613607434</v>
       </c>
       <c r="D10">
-        <v>-0.756843079459684</v>
+        <v>-0.4950248887037911</v>
       </c>
       <c r="E10">
-        <v>-0.2028495541057173</v>
+        <v>-1.149808641051175</v>
       </c>
       <c r="F10">
-        <v>-0.112494871682565</v>
+        <v>1.843297869914595</v>
       </c>
       <c r="G10">
-        <v>0.03306263878144944</v>
+        <v>0.9210081383601441</v>
       </c>
       <c r="H10">
-        <v>-0.02328738176856249</v>
+        <v>-1.389517787662581</v>
       </c>
       <c r="I10">
-        <v>-0.0464214493150229</v>
+        <v>-1.749953316676969</v>
       </c>
       <c r="J10">
-        <v>-0.04913256965372248</v>
+        <v>2.487125804889406</v>
       </c>
       <c r="K10">
-        <v>0.1282965472238247</v>
+        <v>0.3002968346996191</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.2918049441017214</v>
+        <v>0.5053335455915529</v>
       </c>
       <c r="C11">
-        <v>-0.03532860032575602</v>
+        <v>-1.358292596715075</v>
       </c>
       <c r="D11">
-        <v>-0.3194154304877062</v>
+        <v>1.680403750658399</v>
       </c>
       <c r="E11">
-        <v>0.02106703584810282</v>
+        <v>1.008808800605726</v>
       </c>
       <c r="F11">
-        <v>-0.02885670793474238</v>
+        <v>-1.396752856754145</v>
       </c>
       <c r="G11">
-        <v>-0.09402816610265324</v>
+        <v>-1.779863397284836</v>
       </c>
       <c r="H11">
-        <v>-0.08297204784234052</v>
+        <v>2.485664645392344</v>
       </c>
       <c r="I11">
-        <v>0.09808672129966639</v>
+        <v>0.2941388319466436</v>
       </c>
       <c r="J11">
-        <v>-0.08781000903778613</v>
+        <v>-0.2558434956277781</v>
       </c>
       <c r="K11">
-        <v>-0.1447602666257092</v>
+        <v>-1.729361909483962</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.17128377280706</v>
+        <v>1.339849831222948</v>
       </c>
       <c r="C12">
-        <v>-0.1791189260402663</v>
+        <v>0.814118463344484</v>
       </c>
       <c r="D12">
-        <v>0.02696488174247569</v>
+        <v>-1.267741768781739</v>
       </c>
       <c r="E12">
-        <v>-0.05310846180611506</v>
+        <v>-1.788141674011519</v>
       </c>
       <c r="F12">
-        <v>-0.09032866302891712</v>
+        <v>2.451423199566685</v>
       </c>
       <c r="G12">
-        <v>0.11036015789495</v>
+        <v>0.2983219022947881</v>
       </c>
       <c r="H12">
-        <v>-0.07219992428403693</v>
+        <v>-0.2585121595952037</v>
       </c>
       <c r="I12">
-        <v>-0.1343818636894694</v>
+        <v>-1.738180127138258</v>
       </c>
       <c r="J12">
-        <v>-0.1328827219433978</v>
+        <v>0.07074032370403782</v>
       </c>
       <c r="K12">
-        <v>-0.3899333315928718</v>
+        <v>0.9971770310456631</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.8142862686492058</v>
+        <v>-0.7782997505784299</v>
       </c>
       <c r="C13">
-        <v>-0.03730786942953168</v>
+        <v>-1.8361640420078</v>
       </c>
       <c r="D13">
-        <v>-0.4268157070836607</v>
+        <v>2.319833100786634</v>
       </c>
       <c r="E13">
-        <v>0.02862667209850001</v>
+        <v>0.3023233898838172</v>
       </c>
       <c r="F13">
-        <v>-0.1676432817120854</v>
+        <v>-0.2827541059558693</v>
       </c>
       <c r="G13">
-        <v>-0.2732295966444718</v>
+        <v>-1.780231982177512</v>
       </c>
       <c r="H13">
-        <v>-0.2556000876331957</v>
+        <v>0.04027180373177264</v>
       </c>
       <c r="I13">
-        <v>-0.5095696891089572</v>
+        <v>0.9664229203335013</v>
       </c>
       <c r="J13">
-        <v>-0.5445227672251081</v>
+        <v>0.8888962851724813</v>
       </c>
       <c r="K13">
-        <v>-0.5870180472211182</v>
+        <v>-1.539425260464403</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.9609876466476104</v>
+        <v>1.600836433812818</v>
       </c>
       <c r="C14">
-        <v>-0.002117381886093395</v>
+        <v>0.1946749838982902</v>
       </c>
       <c r="D14">
-        <v>0.140753050615986</v>
+        <v>-0.05462157107815235</v>
       </c>
       <c r="E14">
-        <v>-0.1830469963165418</v>
+        <v>-1.789561264445737</v>
       </c>
       <c r="F14">
-        <v>-0.1662592757197791</v>
+        <v>0.03804391946756724</v>
       </c>
       <c r="G14">
-        <v>-0.373595387090685</v>
+        <v>1.011594603348007</v>
       </c>
       <c r="H14">
-        <v>-0.4235663169611817</v>
+        <v>0.9171305911971613</v>
       </c>
       <c r="I14">
-        <v>-0.4710578747795517</v>
+        <v>-1.515591953024298</v>
       </c>
       <c r="J14">
-        <v>-0.4657018233425152</v>
+        <v>-0.04745025245454915</v>
       </c>
       <c r="K14">
-        <v>0.1560119204909365</v>
+        <v>-0.3392991498005469</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.8895633471718796</v>
+        <v>0.3010031673752307</v>
       </c>
       <c r="C15">
-        <v>-0.3263293016036916</v>
+        <v>-1.921509161222507</v>
       </c>
       <c r="D15">
-        <v>0.2017862744610186</v>
+        <v>-0.0524756413422281</v>
       </c>
       <c r="E15">
-        <v>-0.3361960862162706</v>
+        <v>1.013352628534677</v>
       </c>
       <c r="F15">
-        <v>-0.3747115664251746</v>
+        <v>0.8794124191540724</v>
       </c>
       <c r="G15">
-        <v>-0.3640834140268574</v>
+        <v>-1.560316657544505</v>
       </c>
       <c r="H15">
-        <v>-0.3796943112059631</v>
+        <v>-0.081289583378227</v>
       </c>
       <c r="I15">
-        <v>0.2379129215610576</v>
+        <v>-0.375211459337658</v>
       </c>
       <c r="J15">
-        <v>0.07339857296878882</v>
+        <v>-0.7619718786798015</v>
       </c>
       <c r="K15">
-        <v>-0.03823053039997504</v>
+        <v>-1.37619022256277</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1.202144708756363</v>
+        <v>-0.5716849147553217</v>
       </c>
       <c r="C16">
-        <v>-0.5446800418801703</v>
+        <v>0.8108968630440299</v>
       </c>
       <c r="D16">
-        <v>-0.5376056856813711</v>
+        <v>1.086112535566929</v>
       </c>
       <c r="E16">
-        <v>-0.2762827517812758</v>
+        <v>-1.550918251038055</v>
       </c>
       <c r="F16">
-        <v>-0.3869293802975272</v>
+        <v>-0.09430818270622077</v>
       </c>
       <c r="G16">
-        <v>0.2080028409531911</v>
+        <v>-0.3397706856137065</v>
       </c>
       <c r="H16">
-        <v>0.07193741347172633</v>
+        <v>-0.7373590180257339</v>
       </c>
       <c r="I16">
-        <v>-0.04438853315295055</v>
+        <v>-1.358249744850787</v>
       </c>
       <c r="J16">
-        <v>-0.05287525362465451</v>
+        <v>1.572610727283543</v>
       </c>
       <c r="K16">
-        <v>-0.05657900686701689</v>
+        <v>-0.6271245719003913</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.8781596051168222</v>
+        <v>1.245515382727119</v>
       </c>
       <c r="C17">
-        <v>-0.4709730890425174</v>
+        <v>-1.405935329856292</v>
       </c>
       <c r="D17">
-        <v>-0.2579182923251215</v>
+        <v>-0.1450462909838476</v>
       </c>
       <c r="E17">
-        <v>0.1997245642265078</v>
+        <v>-0.327093643711883</v>
       </c>
       <c r="F17">
-        <v>0.03769596764606675</v>
+        <v>-0.7038767280084279</v>
       </c>
       <c r="G17">
-        <v>-0.04020546280480608</v>
+        <v>-1.344281323636237</v>
       </c>
       <c r="H17">
-        <v>-0.05554391759208011</v>
+        <v>1.588311502829465</v>
       </c>
       <c r="I17">
-        <v>-0.0653972245213128</v>
+        <v>-0.6079301781800791</v>
       </c>
       <c r="J17">
-        <v>-0.06248555921849319</v>
+        <v>-0.03765573088201046</v>
       </c>
       <c r="K17">
-        <v>-0.1023118623025883</v>
+        <v>-3.537149016162154</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2315237258781875</v>
+        <v>-1.128830542788317</v>
       </c>
       <c r="C18">
-        <v>0.1517021962302271</v>
+        <v>-0.05996222033191878</v>
       </c>
       <c r="D18">
-        <v>-0.09389413113398337</v>
+        <v>-0.4917759393816696</v>
       </c>
       <c r="E18">
-        <v>-0.0362039752157769</v>
+        <v>-0.7501737727385163</v>
       </c>
       <c r="F18">
-        <v>-0.07978586395274567</v>
+        <v>-1.377167344770108</v>
       </c>
       <c r="G18">
-        <v>-0.1074490795605673</v>
+        <v>1.527021519587886</v>
       </c>
       <c r="H18">
-        <v>-0.09295407919075838</v>
+        <v>-0.6629477747746789</v>
       </c>
       <c r="I18">
-        <v>-0.1330659730147501</v>
+        <v>-0.08886869937416542</v>
       </c>
       <c r="J18">
-        <v>-0.1362342446200386</v>
+        <v>-3.590848020727035</v>
       </c>
       <c r="K18">
-        <v>-0.1121388595027822</v>
+        <v>4.73174398412219</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.8128907981078001</v>
+        <v>-0.3928034934777593</v>
       </c>
       <c r="C19">
-        <v>-0.1438523812013039</v>
+        <v>-0.4962558842348227</v>
       </c>
       <c r="D19">
-        <v>0.1483466709249712</v>
+        <v>-0.5804258470529343</v>
       </c>
       <c r="E19">
-        <v>-0.1167783618287919</v>
+        <v>-1.32377441104606</v>
       </c>
       <c r="F19">
-        <v>-0.09518196345496377</v>
+        <v>1.583801280738911</v>
       </c>
       <c r="G19">
-        <v>-0.08789429000024407</v>
+        <v>-0.5852614797898008</v>
       </c>
       <c r="H19">
-        <v>-0.1079999385953586</v>
+        <v>-0.01835906658283759</v>
       </c>
       <c r="I19">
-        <v>-0.08830555206267776</v>
+        <v>-3.522032409165165</v>
       </c>
       <c r="J19">
-        <v>-0.0834374307719904</v>
+        <v>4.802442885694729</v>
       </c>
       <c r="K19">
-        <v>-0.09644485404226055</v>
+        <v>2.547603652964324</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.5039714093783543</v>
+        <v>-0.674412134896977</v>
       </c>
       <c r="C20">
-        <v>-0.2487262586055623</v>
+        <v>-0.7713220802274977</v>
       </c>
       <c r="D20">
-        <v>-0.1857015242647591</v>
+        <v>-1.377081969419903</v>
       </c>
       <c r="E20">
-        <v>-0.08613626481357461</v>
+        <v>1.48947514958989</v>
       </c>
       <c r="F20">
-        <v>-0.1457181106384475</v>
+        <v>-0.6979759608654967</v>
       </c>
       <c r="G20">
-        <v>-0.1330302565828843</v>
+        <v>-0.1162396700376596</v>
       </c>
       <c r="H20">
-        <v>-0.1172767616956683</v>
+        <v>-3.620323573340306</v>
       </c>
       <c r="I20">
-        <v>-0.1323571635793717</v>
+        <v>4.701021614200651</v>
       </c>
       <c r="J20">
-        <v>-0.1351774156790668</v>
+        <v>2.447194271117799</v>
       </c>
       <c r="K20">
-        <v>-0.08192193240080969</v>
+        <v>-1.356229394235316</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.7049107976778527</v>
+        <v>-1.033050668587761</v>
       </c>
       <c r="C21">
-        <v>-0.2885920303042216</v>
+        <v>-1.463907318848298</v>
       </c>
       <c r="D21">
-        <v>0.06098200577440893</v>
+        <v>1.527247493997855</v>
       </c>
       <c r="E21">
-        <v>-0.1236318500764348</v>
+        <v>-0.7240372057268971</v>
       </c>
       <c r="F21">
-        <v>-0.130295361023662</v>
+        <v>-0.1484391818639789</v>
       </c>
       <c r="G21">
-        <v>-0.09691638985542017</v>
+        <v>-3.639473091232869</v>
       </c>
       <c r="H21">
-        <v>-0.1105645550249992</v>
+        <v>4.679678998352587</v>
       </c>
       <c r="I21">
-        <v>-0.06398145468882688</v>
+        <v>2.424068667019983</v>
       </c>
       <c r="J21">
-        <v>-0.04192136911561595</v>
+        <v>-1.378522301114672</v>
       </c>
       <c r="K21">
-        <v>-0.0181390161754349</v>
+        <v>-0.6850014695764444</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.220384852934599</v>
+        <v>-1.864229751640736</v>
       </c>
       <c r="C22">
-        <v>0.02135107110532897</v>
+        <v>1.314156154900326</v>
       </c>
       <c r="D22">
-        <v>-0.1810334693012888</v>
+        <v>-0.6284089554023509</v>
       </c>
       <c r="E22">
-        <v>-0.08423934795359667</v>
+        <v>-0.2076133956976113</v>
       </c>
       <c r="F22">
-        <v>-0.07708226500769322</v>
+        <v>-3.727555113241575</v>
       </c>
       <c r="G22">
-        <v>-0.05001303347427677</v>
+        <v>4.642354521515177</v>
       </c>
       <c r="H22">
-        <v>-0.02622059356969431</v>
+        <v>2.37745383133798</v>
       </c>
       <c r="I22">
-        <v>0.001055377544877278</v>
+        <v>-1.435590876583822</v>
       </c>
       <c r="J22">
-        <v>-0.001727837279917654</v>
+        <v>-0.736122773562645</v>
       </c>
       <c r="K22">
-        <v>-0.02952093696976232</v>
+        <v>0.1292243256238396</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.2984558581733031</v>
+        <v>0.8592798254793981</v>
       </c>
       <c r="C23">
-        <v>-0.09594939864936003</v>
+        <v>-0.925726152340695</v>
       </c>
       <c r="D23">
-        <v>-0.2489216436233833</v>
+        <v>0.0591136639750558</v>
       </c>
       <c r="E23">
-        <v>-0.1233793097377816</v>
+        <v>-3.679026436151936</v>
       </c>
       <c r="F23">
-        <v>-0.0828990546081475</v>
+        <v>4.609953792519563</v>
       </c>
       <c r="G23">
-        <v>-0.08751057681127272</v>
+        <v>2.428115906692424</v>
       </c>
       <c r="H23">
-        <v>-0.05396221904972254</v>
+        <v>-1.389511297392613</v>
       </c>
       <c r="I23">
-        <v>-0.05294080577207261</v>
+        <v>-0.7105927624682609</v>
       </c>
       <c r="J23">
-        <v>-0.08321994153464307</v>
+        <v>0.1624000647094789</v>
       </c>
       <c r="K23">
-        <v>-0.08255298356519236</v>
+        <v>2.777722987259838</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.4287906717952005</v>
+        <v>-0.6232123195496128</v>
       </c>
       <c r="C24">
-        <v>-0.2534015884765364</v>
+        <v>0.2677078584092234</v>
       </c>
       <c r="D24">
-        <v>0.0463686159478004</v>
+        <v>-3.722828689799855</v>
       </c>
       <c r="E24">
-        <v>-0.02950612088409921</v>
+        <v>4.688159395846091</v>
       </c>
       <c r="F24">
-        <v>-0.03073081566024793</v>
+        <v>2.522513361392263</v>
       </c>
       <c r="G24">
-        <v>0.02372407593515558</v>
+        <v>-1.33264417163713</v>
       </c>
       <c r="H24">
-        <v>0.01756882701925522</v>
+        <v>-0.6431905977394808</v>
       </c>
       <c r="I24">
-        <v>-0.01440432997277341</v>
+        <v>0.235430429722771</v>
       </c>
       <c r="J24">
-        <v>-0.01185408199265292</v>
+        <v>2.845800968679073</v>
       </c>
       <c r="K24">
-        <v>-0.01218098625094233</v>
+        <v>0.4710190067333163</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.4315578391386907</v>
+        <v>0.1221122572854707</v>
       </c>
       <c r="C25">
-        <v>-0.144527617226763</v>
+        <v>-3.793036635046317</v>
       </c>
       <c r="D25">
-        <v>-0.08281367925794281</v>
+        <v>4.806872332477249</v>
       </c>
       <c r="E25">
-        <v>-0.1250569468092689</v>
+        <v>2.554873801067156</v>
       </c>
       <c r="F25">
-        <v>-0.08899040514054035</v>
+        <v>-1.322666408796113</v>
       </c>
       <c r="G25">
-        <v>-0.08031177643556675</v>
+        <v>-0.6013918488787922</v>
       </c>
       <c r="H25">
-        <v>-0.112695494147914</v>
+        <v>0.272149067922284</v>
       </c>
       <c r="I25">
-        <v>-0.1132753534867312</v>
+        <v>2.87555180555283</v>
       </c>
       <c r="J25">
-        <v>-0.1125903680974671</v>
+        <v>0.5046623717232114</v>
       </c>
       <c r="K25">
-        <v>-0.1130923256249075</v>
+        <v>-4.079826277330567</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.4062562055870261</v>
+        <v>-3.520648097663186</v>
       </c>
       <c r="C26">
-        <v>-0.1696390286863373</v>
+        <v>4.741217610574632</v>
       </c>
       <c r="D26">
-        <v>-0.08728460240130409</v>
+        <v>2.515418179240031</v>
       </c>
       <c r="E26">
-        <v>-0.1150516500019407</v>
+        <v>-1.281963935494187</v>
       </c>
       <c r="F26">
-        <v>-0.1125112882618861</v>
+        <v>-0.5989112107451185</v>
       </c>
       <c r="G26">
-        <v>-0.1318450120404774</v>
+        <v>0.2680644371036436</v>
       </c>
       <c r="H26">
-        <v>-0.1346179693347949</v>
+        <v>2.88426000813157</v>
       </c>
       <c r="I26">
-        <v>-0.1357159721952834</v>
+        <v>0.5101456011739731</v>
       </c>
       <c r="J26">
-        <v>-0.135385232504263</v>
+        <v>-4.076516529175288</v>
       </c>
       <c r="K26">
-        <v>0.1366388938084852</v>
+        <v>3.908686967181791</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.5699614614787754</v>
+        <v>3.456193628778832</v>
       </c>
       <c r="C27">
-        <v>-0.300375941498833</v>
+        <v>1.968271867198887</v>
       </c>
       <c r="D27">
-        <v>-0.01942339967739448</v>
+        <v>-0.7418598133299099</v>
       </c>
       <c r="E27">
-        <v>-0.1716855020955185</v>
+        <v>-0.6980304834100421</v>
       </c>
       <c r="F27">
-        <v>-0.2199270340491832</v>
+        <v>0.1087525080928855</v>
       </c>
       <c r="G27">
-        <v>-0.1719424461722058</v>
+        <v>2.93185895210972</v>
       </c>
       <c r="H27">
-        <v>-0.1823308078772867</v>
+        <v>0.4936020111234298</v>
       </c>
       <c r="I27">
-        <v>-0.1924538079734134</v>
+        <v>-4.127137805332763</v>
       </c>
       <c r="J27">
-        <v>0.08551758982228458</v>
+        <v>3.889857899081199</v>
       </c>
       <c r="K27">
-        <v>0.08602116374953711</v>
+        <v>1.958240883267096</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.7552522709197611</v>
+        <v>3.03136309531355</v>
       </c>
       <c r="C28">
-        <v>-0.3167405966157386</v>
+        <v>-0.1814663132255119</v>
       </c>
       <c r="D28">
-        <v>0.09504155757714861</v>
+        <v>-1.149987907698024</v>
       </c>
       <c r="E28">
-        <v>-0.1713983569595442</v>
+        <v>0.1714279028460687</v>
       </c>
       <c r="F28">
-        <v>-0.2043431751678197</v>
+        <v>3.069286655746816</v>
       </c>
       <c r="G28">
-        <v>-0.1316687325228421</v>
+        <v>0.4664933346933013</v>
       </c>
       <c r="H28">
-        <v>-0.1463742287822042</v>
+        <v>-4.112009120274122</v>
       </c>
       <c r="I28">
-        <v>0.1110476009166688</v>
+        <v>3.932549003787246</v>
       </c>
       <c r="J28">
-        <v>0.1191969028351764</v>
+        <v>1.97938163282553</v>
       </c>
       <c r="K28">
-        <v>0.1202991436943276</v>
+        <v>3.390576584282718</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01422676382465637</v>
+        <v>0.9791904657885611</v>
       </c>
       <c r="C29">
-        <v>0.3036357520113162</v>
+        <v>-0.7323884129221045</v>
       </c>
       <c r="D29">
-        <v>-0.215200610607463</v>
+        <v>-0.357481272552599</v>
       </c>
       <c r="E29">
-        <v>-0.1261375718412912</v>
+        <v>3.123694206311403</v>
       </c>
       <c r="F29">
-        <v>-0.03727127782300332</v>
+        <v>0.5744083481554356</v>
       </c>
       <c r="G29">
-        <v>-0.08950710302672138</v>
+        <v>-4.195779232585104</v>
       </c>
       <c r="H29">
-        <v>0.1784497656454488</v>
+        <v>3.906592561340489</v>
       </c>
       <c r="I29">
-        <v>0.1922272678484684</v>
+        <v>1.987428057497208</v>
       </c>
       <c r="J29">
-        <v>0.1883771251135625</v>
+        <v>3.368710822845081</v>
       </c>
       <c r="K29">
-        <v>0.1861196516908469</v>
+        <v>-3.405424154490871</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1580401508875635</v>
+        <v>-0.4729597427581395</v>
       </c>
       <c r="C30">
-        <v>-0.2854085558539251</v>
+        <v>-0.2007653445859889</v>
       </c>
       <c r="D30">
-        <v>-0.007424635210133479</v>
+        <v>3.03504002915772</v>
       </c>
       <c r="E30">
-        <v>-0.004910838148109775</v>
+        <v>0.619968336611641</v>
       </c>
       <c r="F30">
-        <v>-0.07952934018570457</v>
+        <v>-4.158949776988298</v>
       </c>
       <c r="G30">
-        <v>0.2202485145061375</v>
+        <v>3.914720013676128</v>
       </c>
       <c r="H30">
-        <v>0.2289459060479815</v>
+        <v>2.016053123482105</v>
       </c>
       <c r="I30">
-        <v>0.2181279619873205</v>
+        <v>3.392956837332506</v>
       </c>
       <c r="J30">
-        <v>0.2197630166807419</v>
+        <v>-3.385985196852533</v>
       </c>
       <c r="K30">
-        <v>-0.0221511182175782</v>
+        <v>0.3262378618501874</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.01302001847079493</v>
+        <v>-1.108156133905482</v>
       </c>
       <c r="C31">
-        <v>-0.07307935711275104</v>
+        <v>3.354621057215372</v>
       </c>
       <c r="D31">
-        <v>-0.04436645997523547</v>
+        <v>0.9924955396270656</v>
       </c>
       <c r="E31">
-        <v>-0.03882686688377779</v>
+        <v>-4.331671384949885</v>
       </c>
       <c r="F31">
-        <v>0.2227291526398111</v>
+        <v>3.956860907319434</v>
       </c>
       <c r="G31">
-        <v>0.2248612752293411</v>
+        <v>2.193805985929531</v>
       </c>
       <c r="H31">
-        <v>0.2268361645660604</v>
+        <v>3.422595619448517</v>
       </c>
       <c r="I31">
-        <v>0.2252462461315037</v>
+        <v>-3.348898826925681</v>
       </c>
       <c r="J31">
-        <v>-0.01884137006229947</v>
+        <v>0.4213010989222182</v>
       </c>
       <c r="K31">
-        <v>-0.01892821434577907</v>
+        <v>0.1873933218615745</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1.35810333890855</v>
+        <v>3.499445042624013</v>
       </c>
       <c r="C32">
-        <v>-0.5915127720163791</v>
+        <v>0.5142922891685586</v>
       </c>
       <c r="D32">
-        <v>0.5012772552804989</v>
+        <v>-4.151490363804125</v>
       </c>
       <c r="E32">
-        <v>0.1236098799748874</v>
+        <v>4.118235315608789</v>
       </c>
       <c r="F32">
-        <v>0.06554934621858299</v>
+        <v>2.091224010485251</v>
       </c>
       <c r="G32">
-        <v>0.2744351085442104</v>
+        <v>3.438924291951021</v>
       </c>
       <c r="H32">
-        <v>0.2087026560809604</v>
+        <v>-3.273760390128845</v>
       </c>
       <c r="I32">
-        <v>-0.06946264621977305</v>
+        <v>0.4224930081880768</v>
       </c>
       <c r="J32">
-        <v>-0.03775728244637211</v>
+        <v>0.1956255665894098</v>
       </c>
       <c r="K32">
-        <v>-0.04085654018054063</v>
+        <v>2.364043700175166</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>1.605498925268936</v>
+        <v>1.580798412644219</v>
       </c>
       <c r="C33">
-        <v>-0.4249772211218529</v>
+        <v>-3.241222607353295</v>
       </c>
       <c r="D33">
-        <v>-0.05991397161895662</v>
+        <v>3.276193714340573</v>
       </c>
       <c r="E33">
-        <v>0.4474136964592678</v>
+        <v>2.134629363681968</v>
       </c>
       <c r="F33">
-        <v>0.2256195986281974</v>
+        <v>3.767097824715742</v>
       </c>
       <c r="G33">
-        <v>0.1755409710013484</v>
+        <v>-3.433285683067469</v>
       </c>
       <c r="H33">
-        <v>0.01021209604750761</v>
+        <v>0.3781095124553107</v>
       </c>
       <c r="I33">
-        <v>-0.007450576039971568</v>
+        <v>0.2921356445806694</v>
       </c>
       <c r="J33">
-        <v>-0.02208864153001344</v>
+        <v>2.34839360916947</v>
       </c>
       <c r="K33">
-        <v>-0.01210569358444946</v>
+        <v>-2.085046411360806</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.646207583931508</v>
+        <v>-2.043824916219653</v>
       </c>
       <c r="C34">
-        <v>-0.1386401417470294</v>
+        <v>3.342820422338955</v>
       </c>
       <c r="D34">
-        <v>0.1362856380584899</v>
+        <v>1.54723237962465</v>
       </c>
       <c r="E34">
-        <v>0.3771748184287249</v>
+        <v>3.945119492101099</v>
       </c>
       <c r="F34">
-        <v>0.1984716466278327</v>
+        <v>-3.326362933847277</v>
       </c>
       <c r="G34">
-        <v>-0.05761471086127767</v>
+        <v>0.1980366560939474</v>
       </c>
       <c r="H34">
-        <v>0.00427377032274634</v>
+        <v>0.2709202840029829</v>
       </c>
       <c r="I34">
-        <v>-0.01515163904089689</v>
+        <v>2.374966658834717</v>
       </c>
       <c r="J34">
-        <v>-0.02848310771380946</v>
+        <v>-2.146081711848269</v>
       </c>
       <c r="K34">
-        <v>0.1261590574260197</v>
+        <v>2.633084498249925</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.528554935821056</v>
+        <v>2.903007146341365</v>
       </c>
       <c r="C35">
-        <v>1.025274049507987</v>
+        <v>0.8905562815858743</v>
       </c>
       <c r="D35">
-        <v>-0.5533773909297361</v>
+        <v>4.486905277938412</v>
       </c>
       <c r="E35">
-        <v>0.2697573527760011</v>
+        <v>-3.23473571282376</v>
       </c>
       <c r="F35">
-        <v>0.1973308861575735</v>
+        <v>-0.0335013696538061</v>
       </c>
       <c r="G35">
-        <v>-0.1436010890959308</v>
+        <v>0.384394095981455</v>
       </c>
       <c r="H35">
-        <v>-0.05771645779490842</v>
+        <v>2.4733412334239</v>
       </c>
       <c r="I35">
-        <v>0.01727058375358015</v>
+        <v>-2.191976378225652</v>
       </c>
       <c r="J35">
-        <v>0.1013151134538022</v>
+        <v>2.659349174869945</v>
+      </c>
+      <c r="K35">
+        <v>1.03673109718586</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.1516102322425493</v>
+        <v>2.589400753865245</v>
       </c>
       <c r="C36">
-        <v>0.4258408906499384</v>
+        <v>4.55572744620732</v>
       </c>
       <c r="D36">
-        <v>0.3917058777048096</v>
+        <v>-4.124540948138441</v>
       </c>
       <c r="E36">
-        <v>0.05348165826195372</v>
+        <v>0.1444888298294553</v>
       </c>
       <c r="F36">
-        <v>0.107503106332043</v>
+        <v>0.4152176794253876</v>
       </c>
       <c r="G36">
-        <v>0.1209466667993963</v>
+        <v>2.167603792201276</v>
       </c>
       <c r="H36">
-        <v>0.0931309495051269</v>
+        <v>-2.277319733516579</v>
       </c>
       <c r="I36">
-        <v>0.2432794296999436</v>
+        <v>2.596480616381783</v>
+      </c>
+      <c r="J36">
+        <v>0.8764793270526361</v>
+      </c>
+      <c r="K36">
+        <v>-0.5465978312517157</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.2860114366981362</v>
+        <v>5.509978346131915</v>
       </c>
       <c r="C37">
-        <v>0.1721552041385693</v>
+        <v>-3.557791493681016</v>
       </c>
       <c r="D37">
-        <v>0.1860707569198314</v>
+        <v>-0.526292328716975</v>
       </c>
       <c r="E37">
-        <v>0.112289632994844</v>
+        <v>0.4060683782753454</v>
       </c>
       <c r="F37">
-        <v>0.03832141945628664</v>
+        <v>2.373442861875111</v>
       </c>
       <c r="G37">
-        <v>0.1033973340713732</v>
+        <v>-2.419652528363025</v>
       </c>
       <c r="H37">
-        <v>0.2472491930744334</v>
+        <v>2.512439163784725</v>
+      </c>
+      <c r="I37">
+        <v>0.9051012893443865</v>
+      </c>
+      <c r="J37">
+        <v>-0.5868760436841636</v>
+      </c>
+      <c r="K37">
+        <v>-0.05171984230839022</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.655298291129736</v>
+        <v>-1.933751182015664</v>
       </c>
       <c r="C38">
-        <v>-0.4189984220086804</v>
+        <v>0.581540691259492</v>
       </c>
       <c r="D38">
-        <v>-0.2377622964863196</v>
+        <v>-0.5169707521894877</v>
       </c>
       <c r="E38">
-        <v>0.4153312238654372</v>
+        <v>2.275625875195506</v>
       </c>
       <c r="F38">
-        <v>0.04152472807711449</v>
+        <v>-2.139685240704812</v>
       </c>
       <c r="G38">
-        <v>0.09384413449569612</v>
+        <v>2.401116956479017</v>
+      </c>
+      <c r="H38">
+        <v>0.7977138265217467</v>
+      </c>
+      <c r="I38">
+        <v>-0.5641443883997513</v>
+      </c>
+      <c r="J38">
+        <v>-0.07380809913720043</v>
+      </c>
+      <c r="K38">
+        <v>2.528635502025297</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.3346416535066797</v>
+        <v>-0.0001567180937655788</v>
       </c>
       <c r="C39">
-        <v>-0.3200970279784667</v>
+        <v>-0.8269365676007918</v>
       </c>
       <c r="D39">
-        <v>0.4045188586606931</v>
+        <v>2.333636813135223</v>
       </c>
       <c r="E39">
-        <v>0.08095151790514343</v>
+        <v>-2.227981098936628</v>
       </c>
       <c r="F39">
-        <v>0.08369662374405834</v>
+        <v>2.298835638832242</v>
+      </c>
+      <c r="G39">
+        <v>0.7179400331181904</v>
+      </c>
+      <c r="H39">
+        <v>-0.6499090615716783</v>
+      </c>
+      <c r="I39">
+        <v>-0.1580596417923184</v>
+      </c>
+      <c r="J39">
+        <v>2.444422123260232</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.746990494943534</v>
+        <v>-0.5471678107437475</v>
       </c>
       <c r="C40">
-        <v>1.193097971902525</v>
+        <v>2.210171030163889</v>
       </c>
       <c r="D40">
-        <v>-0.1822799311625869</v>
+        <v>-2.32215138024061</v>
       </c>
       <c r="E40">
-        <v>-0.2587385312184467</v>
+        <v>2.300742150702945</v>
+      </c>
+      <c r="F40">
+        <v>0.6871280689296477</v>
+      </c>
+      <c r="G40">
+        <v>-0.6962429471332607</v>
+      </c>
+      <c r="H40">
+        <v>-0.1920405897499839</v>
+      </c>
+      <c r="I40">
+        <v>2.410952608423392</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>1.683875204427537</v>
+        <v>2.273176923106997</v>
       </c>
       <c r="C41">
-        <v>-0.4949286775141665</v>
+        <v>-2.491019644209139</v>
       </c>
       <c r="D41">
-        <v>-0.4058278134720918</v>
+        <v>2.301960421309412</v>
+      </c>
+      <c r="E41">
+        <v>0.6909838063183091</v>
+      </c>
+      <c r="F41">
+        <v>-0.7300892905112117</v>
+      </c>
+      <c r="G41">
+        <v>-0.2158525096026614</v>
+      </c>
+      <c r="H41">
+        <v>2.392513620262102</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.8056324128928098</v>
+        <v>-1.808767440257332</v>
       </c>
       <c r="C42">
-        <v>0.01713805369022897</v>
+        <v>2.464617389115699</v>
+      </c>
+      <c r="D42">
+        <v>0.3950229275122108</v>
+      </c>
+      <c r="E42">
+        <v>-0.8098812772522381</v>
+      </c>
+      <c r="F42">
+        <v>-0.258051591293756</v>
+      </c>
+      <c r="G42">
+        <v>2.298120047189392</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.474412773131162</v>
+        <v>2.046589200561493</v>
+      </c>
+      <c r="C43">
+        <v>0.1452094662362219</v>
+      </c>
+      <c r="D43">
+        <v>-0.6296924969380526</v>
+      </c>
+      <c r="E43">
+        <v>-0.2262841850860232</v>
+      </c>
+      <c r="F43">
+        <v>2.277452844118849</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.9518773913432363</v>
+      </c>
+      <c r="C44">
+        <v>-0.5981473860390865</v>
+      </c>
+      <c r="D44">
+        <v>-0.4920485414861253</v>
+      </c>
+      <c r="E44">
+        <v>2.236838438004872</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.3651867929087249</v>
+      </c>
+      <c r="C45">
+        <v>-0.4054553082702783</v>
+      </c>
+      <c r="D45">
+        <v>2.151493626891167</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.4345157751626203</v>
+      </c>
+      <c r="C46">
+        <v>2.116396799769754</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>2.120589579290391</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>-1.570450117525508</v>
       </c>
-      <c r="I2">
-        <v>1.677176506711137</v>
-      </c>
-      <c r="J2">
-        <v>1.413479165989774</v>
-      </c>
-      <c r="K2">
-        <v>-1.197032425163824</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>-1.29372279837953</v>
       </c>
-      <c r="G3">
-        <v>1.94830689603405</v>
-      </c>
-      <c r="H3">
-        <v>1.683787630665838</v>
-      </c>
-      <c r="I3">
-        <v>-0.9259396907858677</v>
-      </c>
-      <c r="J3">
-        <v>1.334980598463436</v>
-      </c>
-      <c r="K3">
-        <v>2.689064788670529</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>1.308932161580292</v>
       </c>
-      <c r="I4">
-        <v>2.656716568347222</v>
-      </c>
-      <c r="J4">
-        <v>-1.332075006104203</v>
-      </c>
-      <c r="K4">
-        <v>-1.780936597262898</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>1.262963085780092</v>
       </c>
-      <c r="G5">
-        <v>2.593688932206153</v>
-      </c>
-      <c r="H5">
-        <v>-1.391625964612836</v>
-      </c>
-      <c r="I5">
-        <v>-1.838122126165179</v>
-      </c>
-      <c r="J5">
-        <v>0.3213124992367958</v>
-      </c>
-      <c r="K5">
-        <v>-3.123224535438796</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>0.2874730210481778</v>
       </c>
-      <c r="I6">
-        <v>-3.153434361362954</v>
-      </c>
-      <c r="J6">
-        <v>4.378035005625402</v>
-      </c>
-      <c r="K6">
-        <v>0.8319721963387258</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>0.2801164058616012</v>
       </c>
-      <c r="G7">
-        <v>-3.14116092476767</v>
-      </c>
-      <c r="H7">
-        <v>4.393645090379152</v>
-      </c>
-      <c r="I7">
-        <v>0.8423505992749656</v>
-      </c>
-      <c r="J7">
-        <v>-0.8296938851082075</v>
-      </c>
-      <c r="K7">
-        <v>-1.203545886427776</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>-0.9524112507980054</v>
       </c>
-      <c r="I8">
-        <v>-1.323182243943861</v>
-      </c>
-      <c r="J8">
-        <v>1.673486669114662</v>
-      </c>
-      <c r="K8">
-        <v>0.6980735051658833</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>-0.8630704388845888</v>
       </c>
-      <c r="G9">
-        <v>-1.187207941925589</v>
-      </c>
-      <c r="H9">
-        <v>1.794443119378588</v>
-      </c>
-      <c r="I9">
-        <v>0.8140336776074497</v>
-      </c>
-      <c r="J9">
-        <v>-1.475525299799133</v>
-      </c>
-      <c r="K9">
-        <v>-1.831854317747091</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>-1.389517787662581</v>
       </c>
-      <c r="I10">
-        <v>-1.749953316676969</v>
-      </c>
-      <c r="J10">
-        <v>2.487125804889406</v>
-      </c>
-      <c r="K10">
-        <v>0.3002968346996191</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>-1.396752856754145</v>
       </c>
-      <c r="G11">
-        <v>-1.779863397284836</v>
-      </c>
-      <c r="H11">
-        <v>2.485664645392344</v>
-      </c>
-      <c r="I11">
-        <v>0.2941388319466436</v>
-      </c>
-      <c r="J11">
-        <v>-0.2558434956277781</v>
-      </c>
-      <c r="K11">
-        <v>-1.729361909483962</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>-0.2585121595952037</v>
       </c>
-      <c r="I12">
-        <v>-1.738180127138258</v>
-      </c>
-      <c r="J12">
-        <v>0.07074032370403782</v>
-      </c>
-      <c r="K12">
-        <v>0.9971770310456631</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>0.8888962851724813</v>
       </c>
-      <c r="K13">
-        <v>-1.539425260464403</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>0.9171305911971613</v>
       </c>
-      <c r="I14">
-        <v>-1.515591953024298</v>
-      </c>
-      <c r="J14">
-        <v>-0.04745025245454915</v>
-      </c>
-      <c r="K14">
-        <v>-0.3392991498005469</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>-0.7619718786798015</v>
       </c>
-      <c r="K15">
-        <v>-1.37619022256277</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>-0.7373590180257339</v>
       </c>
-      <c r="I16">
-        <v>-1.358249744850787</v>
-      </c>
-      <c r="J16">
-        <v>1.572610727283543</v>
-      </c>
-      <c r="K16">
-        <v>-0.6271245719003913</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>-0.03765573088201046</v>
       </c>
-      <c r="K17">
-        <v>-3.537149016162154</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>-0.08886869937416542</v>
       </c>
-      <c r="J18">
-        <v>-3.590848020727035</v>
-      </c>
-      <c r="K18">
-        <v>4.73174398412219</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>-0.01835906658283759</v>
       </c>
-      <c r="I19">
-        <v>-3.522032409165165</v>
-      </c>
-      <c r="J19">
-        <v>4.802442885694729</v>
-      </c>
-      <c r="K19">
-        <v>2.547603652964324</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>-1.378522301114672</v>
       </c>
-      <c r="K21">
-        <v>-0.6850014695764444</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>-1.435590876583822</v>
       </c>
-      <c r="J22">
-        <v>-0.736122773562645</v>
-      </c>
-      <c r="K22">
-        <v>0.1292243256238396</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>-1.389511297392613</v>
       </c>
-      <c r="I23">
-        <v>-0.7105927624682609</v>
-      </c>
-      <c r="J23">
-        <v>0.1624000647094789</v>
-      </c>
-      <c r="K23">
-        <v>2.777722987259838</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>0.5046623717232114</v>
       </c>
-      <c r="K25">
-        <v>-4.079826277330567</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>0.5101456011739731</v>
       </c>
-      <c r="J26">
-        <v>-4.076516529175288</v>
-      </c>
-      <c r="K26">
-        <v>3.908686967181791</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>0.4936020111234298</v>
       </c>
-      <c r="I27">
-        <v>-4.127137805332763</v>
-      </c>
-      <c r="J27">
-        <v>3.889857899081199</v>
-      </c>
-      <c r="K27">
-        <v>1.958240883267096</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>3.368710822845081</v>
       </c>
-      <c r="K29">
-        <v>-3.405424154490871</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>3.392956837332506</v>
       </c>
-      <c r="J30">
-        <v>-3.385985196852533</v>
-      </c>
-      <c r="K30">
-        <v>0.3262378618501874</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>3.422595619448517</v>
       </c>
-      <c r="I31">
-        <v>-3.348898826925681</v>
-      </c>
-      <c r="J31">
-        <v>0.4213010989222182</v>
-      </c>
-      <c r="K31">
-        <v>0.1873933218615745</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>2.34839360916947</v>
       </c>
-      <c r="K33">
-        <v>-2.085046411360806</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>2.374966658834717</v>
       </c>
-      <c r="J34">
-        <v>-2.146081711848269</v>
-      </c>
-      <c r="K34">
-        <v>2.633084498249925</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>2.4733412334239</v>
       </c>
-      <c r="I35">
-        <v>-2.191976378225652</v>
-      </c>
-      <c r="J35">
-        <v>2.659349174869945</v>
-      </c>
-      <c r="K35">
-        <v>1.03673109718586</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>-0.5868760436841636</v>
       </c>
-      <c r="K37">
-        <v>-0.05171984230839022</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>-0.5641443883997513</v>
       </c>
-      <c r="J38">
-        <v>-0.07380809913720043</v>
-      </c>
-      <c r="K38">
-        <v>2.528635502025297</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>-0.6499090615716783</v>
-      </c>
-      <c r="I39">
-        <v>-0.1580596417923184</v>
-      </c>
-      <c r="J39">
-        <v>2.444422123260232</v>
       </c>
     </row>
     <row r="40" spans="1:11">
